--- a/uti_agregado_diario_imputada_adulto.xlsx
+++ b/uti_agregado_diario_imputada_adulto.xlsx
@@ -437,764 +437,764 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44043</v>
+        <v>44051</v>
       </c>
       <c r="B2" t="n">
-        <v>813</v>
+        <v>826</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I2" t="n">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="J2" t="n">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="K2" t="n">
         <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="M2" t="n">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="N2" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44042</v>
+        <v>44050</v>
       </c>
       <c r="B3" t="n">
-        <v>799</v>
+        <v>826</v>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>683</v>
+        <v>718</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I3" t="n">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="J3" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K3" t="n">
         <v>17</v>
       </c>
       <c r="L3" t="n">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="M3" t="n">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="N3" t="n">
-        <v>356</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44041</v>
+        <v>44049</v>
       </c>
       <c r="B4" t="n">
-        <v>790</v>
+        <v>819</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I4" t="n">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="J4" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K4" t="n">
         <v>17</v>
       </c>
       <c r="L4" t="n">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="M4" t="n">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="N4" t="n">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44040</v>
+        <v>44048</v>
       </c>
       <c r="B5" t="n">
-        <v>788</v>
+        <v>821</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H5" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I5" t="n">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="J5" t="n">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="K5" t="n">
         <v>17</v>
       </c>
       <c r="L5" t="n">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="M5" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="N5" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44039</v>
+        <v>44047</v>
       </c>
       <c r="B6" t="n">
-        <v>788</v>
+        <v>817</v>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>683</v>
+        <v>725</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H6" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I6" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="J6" t="n">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="K6" t="n">
         <v>17</v>
       </c>
       <c r="L6" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M6" t="n">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="N6" t="n">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44038</v>
+        <v>44046</v>
       </c>
       <c r="B7" t="n">
-        <v>786</v>
+        <v>812</v>
       </c>
       <c r="C7" t="n">
         <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="E7" t="n">
         <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I7" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J7" t="n">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="K7" t="n">
         <v>17</v>
       </c>
       <c r="L7" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M7" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="N7" t="n">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44037</v>
+        <v>44045</v>
       </c>
       <c r="B8" t="n">
-        <v>792</v>
+        <v>812</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I8" t="n">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="J8" t="n">
+        <v>356</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>318</v>
+      </c>
+      <c r="M8" t="n">
         <v>355</v>
       </c>
-      <c r="K8" t="n">
-        <v>17</v>
-      </c>
-      <c r="L8" t="n">
-        <v>312</v>
-      </c>
-      <c r="M8" t="n">
-        <v>347</v>
-      </c>
       <c r="N8" t="n">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44036</v>
+        <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>786</v>
+        <v>812</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="E9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I9" t="n">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="J9" t="n">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="K9" t="n">
         <v>17</v>
       </c>
       <c r="L9" t="n">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="M9" t="n">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="N9" t="n">
-        <v>346</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44035</v>
+        <v>44043</v>
       </c>
       <c r="B10" t="n">
-        <v>788</v>
+        <v>813</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>677</v>
+        <v>713</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I10" t="n">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="J10" t="n">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="K10" t="n">
         <v>17</v>
       </c>
       <c r="L10" t="n">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="M10" t="n">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="N10" t="n">
-        <v>337</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44034</v>
+        <v>44042</v>
       </c>
       <c r="B11" t="n">
-        <v>775</v>
+        <v>799</v>
       </c>
       <c r="C11" t="n">
         <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H11" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I11" t="n">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="J11" t="n">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K11" t="n">
         <v>17</v>
       </c>
       <c r="L11" t="n">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="M11" t="n">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="N11" t="n">
-        <v>326</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44033</v>
+        <v>44041</v>
       </c>
       <c r="B12" t="n">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="C12" t="n">
         <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H12" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I12" t="n">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="J12" t="n">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="K12" t="n">
         <v>17</v>
       </c>
       <c r="L12" t="n">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M12" t="n">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="N12" t="n">
-        <v>336</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44032</v>
+        <v>44040</v>
       </c>
       <c r="B13" t="n">
-        <v>756</v>
+        <v>788</v>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H13" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I13" t="n">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="J13" t="n">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="K13" t="n">
         <v>17</v>
       </c>
       <c r="L13" t="n">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="M13" t="n">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="N13" t="n">
-        <v>322</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44031</v>
+        <v>44039</v>
       </c>
       <c r="B14" t="n">
-        <v>756</v>
+        <v>788</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="H14" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="J14" t="n">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="K14" t="n">
         <v>17</v>
       </c>
       <c r="L14" t="n">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="M14" t="n">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="N14" t="n">
-        <v>311</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44030</v>
+        <v>44038</v>
       </c>
       <c r="B15" t="n">
-        <v>748</v>
+        <v>786</v>
       </c>
       <c r="C15" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" t="n">
+        <v>682</v>
+      </c>
+      <c r="E15" t="n">
         <v>12</v>
       </c>
-      <c r="D15" t="n">
-        <v>665</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H15" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I15" t="n">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="J15" t="n">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="K15" t="n">
         <v>17</v>
       </c>
       <c r="L15" t="n">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="M15" t="n">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="N15" t="n">
-        <v>306</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44029</v>
+        <v>44037</v>
       </c>
       <c r="B16" t="n">
-        <v>748</v>
+        <v>792</v>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>650</v>
+        <v>702</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H16" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="J16" t="n">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="K16" t="n">
         <v>17</v>
       </c>
       <c r="L16" t="n">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="M16" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="N16" t="n">
-        <v>305</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44028</v>
+        <v>44036</v>
       </c>
       <c r="B17" t="n">
-        <v>746</v>
+        <v>786</v>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H17" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I17" t="n">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="J17" t="n">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="K17" t="n">
         <v>17</v>
       </c>
       <c r="L17" t="n">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="M17" t="n">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="N17" t="n">
-        <v>288</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44027</v>
+        <v>44035</v>
       </c>
       <c r="B18" t="n">
-        <v>756</v>
+        <v>788</v>
       </c>
       <c r="C18" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>640</v>
+        <v>677</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I18" t="n">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="J18" t="n">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="K18" t="n">
         <v>17</v>
       </c>
       <c r="L18" t="n">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="M18" t="n">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="N18" t="n">
-        <v>279</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44026</v>
+        <v>44034</v>
       </c>
       <c r="B19" t="n">
-        <v>738</v>
+        <v>775</v>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>613</v>
+        <v>678</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1206,39 +1206,39 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I19" t="n">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="J19" t="n">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="K19" t="n">
         <v>17</v>
       </c>
       <c r="L19" t="n">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="M19" t="n">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="N19" t="n">
-        <v>270</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44025</v>
+        <v>44033</v>
       </c>
       <c r="B20" t="n">
-        <v>728</v>
+        <v>784</v>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>605</v>
+        <v>694</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1250,39 +1250,39 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I20" t="n">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="J20" t="n">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="K20" t="n">
         <v>17</v>
       </c>
       <c r="L20" t="n">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="M20" t="n">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="N20" t="n">
-        <v>259</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44024</v>
+        <v>44032</v>
       </c>
       <c r="B21" t="n">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>631</v>
+        <v>674</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1294,39 +1294,39 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I21" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="J21" t="n">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="K21" t="n">
         <v>17</v>
       </c>
       <c r="L21" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="M21" t="n">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="N21" t="n">
-        <v>259</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44023</v>
+        <v>44031</v>
       </c>
       <c r="B22" t="n">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="C22" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>630</v>
+        <v>678</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1338,39 +1338,39 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I22" t="n">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="J22" t="n">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="K22" t="n">
         <v>17</v>
       </c>
       <c r="L22" t="n">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="M22" t="n">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="N22" t="n">
-        <v>250</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44022</v>
+        <v>44030</v>
       </c>
       <c r="B23" t="n">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="C23" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>614</v>
+        <v>665</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1382,39 +1382,39 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I23" t="n">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="J23" t="n">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="K23" t="n">
         <v>17</v>
       </c>
       <c r="L23" t="n">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="M23" t="n">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="N23" t="n">
-        <v>243</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44021</v>
+        <v>44029</v>
       </c>
       <c r="B24" t="n">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="C24" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1426,39 +1426,39 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I24" t="n">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="J24" t="n">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="K24" t="n">
         <v>17</v>
       </c>
       <c r="L24" t="n">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="M24" t="n">
-        <v>234</v>
+        <v>305</v>
       </c>
       <c r="N24" t="n">
-        <v>234</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44020</v>
+        <v>44028</v>
       </c>
       <c r="B25" t="n">
-        <v>723</v>
+        <v>746</v>
       </c>
       <c r="C25" t="n">
         <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>602</v>
+        <v>655</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1470,39 +1470,39 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I25" t="n">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="J25" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K25" t="n">
         <v>17</v>
       </c>
       <c r="L25" t="n">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="M25" t="n">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="N25" t="n">
-        <v>236</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44019</v>
+        <v>44027</v>
       </c>
       <c r="B26" t="n">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="C26" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1514,39 +1514,39 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I26" t="n">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="J26" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="K26" t="n">
         <v>17</v>
       </c>
       <c r="L26" t="n">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="M26" t="n">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="N26" t="n">
-        <v>230</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44018</v>
+        <v>44026</v>
       </c>
       <c r="B27" t="n">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="C27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1558,39 +1558,39 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I27" t="n">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="J27" t="n">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="K27" t="n">
         <v>17</v>
       </c>
       <c r="L27" t="n">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="M27" t="n">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="N27" t="n">
-        <v>216</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44017</v>
+        <v>44025</v>
       </c>
       <c r="B28" t="n">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28" t="n">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1602,39 +1602,39 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I28" t="n">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="J28" t="n">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="K28" t="n">
         <v>17</v>
       </c>
       <c r="L28" t="n">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="M28" t="n">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="N28" t="n">
-        <v>219</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44016</v>
+        <v>44024</v>
       </c>
       <c r="B29" t="n">
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="C29" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>580</v>
+        <v>631</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1646,39 +1646,39 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I29" t="n">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="J29" t="n">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K29" t="n">
         <v>17</v>
       </c>
       <c r="L29" t="n">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="M29" t="n">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="N29" t="n">
-        <v>212</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44015</v>
+        <v>44023</v>
       </c>
       <c r="B30" t="n">
-        <v>709</v>
+        <v>738</v>
       </c>
       <c r="C30" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
-        <v>581</v>
+        <v>630</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1693,36 +1693,36 @@
         <v>47</v>
       </c>
       <c r="I30" t="n">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="J30" t="n">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="K30" t="n">
         <v>17</v>
       </c>
       <c r="L30" t="n">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="M30" t="n">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="N30" t="n">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44014</v>
+        <v>44022</v>
       </c>
       <c r="B31" t="n">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="C31" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D31" t="n">
-        <v>576</v>
+        <v>614</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1734,39 +1734,39 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I31" t="n">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="J31" t="n">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K31" t="n">
         <v>17</v>
       </c>
       <c r="L31" t="n">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="M31" t="n">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="N31" t="n">
-        <v>210</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44013</v>
+        <v>44021</v>
       </c>
       <c r="B32" t="n">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="C32" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
-        <v>551</v>
+        <v>616</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1778,39 +1778,39 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I32" t="n">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="J32" t="n">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="K32" t="n">
         <v>17</v>
       </c>
       <c r="L32" t="n">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="M32" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="N32" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44012</v>
+        <v>44020</v>
       </c>
       <c r="B33" t="n">
-        <v>703</v>
+        <v>723</v>
       </c>
       <c r="C33" t="n">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1822,39 +1822,39 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I33" t="n">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="J33" t="n">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="K33" t="n">
         <v>17</v>
       </c>
       <c r="L33" t="n">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="M33" t="n">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="N33" t="n">
-        <v>188</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44011</v>
+        <v>44019</v>
       </c>
       <c r="B34" t="n">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="C34" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34" t="n">
-        <v>551</v>
+        <v>607</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1866,39 +1866,39 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I34" t="n">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="J34" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K34" t="n">
         <v>17</v>
       </c>
       <c r="L34" t="n">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="M34" t="n">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="N34" t="n">
-        <v>177</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44010</v>
+        <v>44018</v>
       </c>
       <c r="B35" t="n">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="C35" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" t="n">
-        <v>537</v>
+        <v>592</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1910,39 +1910,39 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I35" t="n">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="J35" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K35" t="n">
         <v>17</v>
       </c>
       <c r="L35" t="n">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="M35" t="n">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="N35" t="n">
-        <v>160</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44009</v>
+        <v>44017</v>
       </c>
       <c r="B36" t="n">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="C36" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D36" t="n">
-        <v>531</v>
+        <v>585</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1954,39 +1954,39 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I36" t="n">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="J36" t="n">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="K36" t="n">
         <v>17</v>
       </c>
       <c r="L36" t="n">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="M36" t="n">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="N36" t="n">
-        <v>145</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44008</v>
+        <v>44016</v>
       </c>
       <c r="B37" t="n">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="C37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D37" t="n">
-        <v>525</v>
+        <v>580</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1998,39 +1998,39 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I37" t="n">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="J37" t="n">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="K37" t="n">
         <v>17</v>
       </c>
       <c r="L37" t="n">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="M37" t="n">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="N37" t="n">
-        <v>143</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44007</v>
+        <v>44015</v>
       </c>
       <c r="B38" t="n">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="C38" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D38" t="n">
-        <v>541</v>
+        <v>581</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2042,39 +2042,39 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I38" t="n">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="J38" t="n">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="K38" t="n">
         <v>17</v>
       </c>
       <c r="L38" t="n">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="M38" t="n">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="N38" t="n">
-        <v>144</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44006</v>
+        <v>44014</v>
       </c>
       <c r="B39" t="n">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="C39" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D39" t="n">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2086,39 +2086,39 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I39" t="n">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="J39" t="n">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="K39" t="n">
         <v>17</v>
       </c>
       <c r="L39" t="n">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="M39" t="n">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="N39" t="n">
-        <v>144</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44005</v>
+        <v>44013</v>
       </c>
       <c r="B40" t="n">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2130,39 +2130,39 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I40" t="n">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="J40" t="n">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="K40" t="n">
         <v>17</v>
       </c>
       <c r="L40" t="n">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="M40" t="n">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="N40" t="n">
-        <v>147</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44004</v>
+        <v>44012</v>
       </c>
       <c r="B41" t="n">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="D41" t="n">
-        <v>537</v>
+        <v>578</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -2174,39 +2174,39 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I41" t="n">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="J41" t="n">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="K41" t="n">
         <v>17</v>
       </c>
       <c r="L41" t="n">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="M41" t="n">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="N41" t="n">
-        <v>131</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44003</v>
+        <v>44011</v>
       </c>
       <c r="B42" t="n">
-        <v>656</v>
+        <v>712</v>
       </c>
       <c r="C42" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D42" t="n">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2218,39 +2218,39 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I42" t="n">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="J42" t="n">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="K42" t="n">
         <v>17</v>
       </c>
       <c r="L42" t="n">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="M42" t="n">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="N42" t="n">
-        <v>124</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44002</v>
+        <v>44010</v>
       </c>
       <c r="B43" t="n">
-        <v>651</v>
+        <v>710</v>
       </c>
       <c r="C43" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2262,39 +2262,39 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I43" t="n">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="J43" t="n">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="K43" t="n">
         <v>17</v>
       </c>
       <c r="L43" t="n">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="M43" t="n">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="N43" t="n">
-        <v>115</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44001</v>
+        <v>44009</v>
       </c>
       <c r="B44" t="n">
-        <v>647</v>
+        <v>696</v>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D44" t="n">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2306,39 +2306,39 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I44" t="n">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="J44" t="n">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="K44" t="n">
         <v>17</v>
       </c>
       <c r="L44" t="n">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="M44" t="n">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="N44" t="n">
-        <v>106</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44000</v>
+        <v>44008</v>
       </c>
       <c r="B45" t="n">
-        <v>647</v>
+        <v>696</v>
       </c>
       <c r="C45" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D45" t="n">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2350,39 +2350,39 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I45" t="n">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="J45" t="n">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="K45" t="n">
         <v>17</v>
       </c>
       <c r="L45" t="n">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="M45" t="n">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="N45" t="n">
-        <v>102</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>43999</v>
+        <v>44007</v>
       </c>
       <c r="B46" t="n">
-        <v>641</v>
+        <v>696</v>
       </c>
       <c r="C46" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2394,39 +2394,39 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I46" t="n">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="J46" t="n">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="K46" t="n">
         <v>17</v>
       </c>
       <c r="L46" t="n">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="M46" t="n">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="N46" t="n">
-        <v>104</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>43998</v>
+        <v>44006</v>
       </c>
       <c r="B47" t="n">
-        <v>641</v>
+        <v>695</v>
       </c>
       <c r="C47" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2438,39 +2438,39 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I47" t="n">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J47" t="n">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K47" t="n">
         <v>17</v>
       </c>
       <c r="L47" t="n">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="M47" t="n">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="N47" t="n">
-        <v>107</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>43997</v>
+        <v>44005</v>
       </c>
       <c r="B48" t="n">
-        <v>641</v>
+        <v>694</v>
       </c>
       <c r="C48" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2485,36 +2485,36 @@
         <v>36</v>
       </c>
       <c r="I48" t="n">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="J48" t="n">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="K48" t="n">
         <v>17</v>
       </c>
       <c r="L48" t="n">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="M48" t="n">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="N48" t="n">
-        <v>115</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>43996</v>
+        <v>44004</v>
       </c>
       <c r="B49" t="n">
-        <v>641</v>
+        <v>698</v>
       </c>
       <c r="C49" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2526,39 +2526,39 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I49" t="n">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="J49" t="n">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="K49" t="n">
         <v>17</v>
       </c>
       <c r="L49" t="n">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="M49" t="n">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="N49" t="n">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>43995</v>
+        <v>44003</v>
       </c>
       <c r="B50" t="n">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="C50" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" t="n">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2570,39 +2570,39 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I50" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="J50" t="n">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K50" t="n">
         <v>17</v>
       </c>
       <c r="L50" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="M50" t="n">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="N50" t="n">
-        <v>98</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>43994</v>
+        <v>44002</v>
       </c>
       <c r="B51" t="n">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="C51" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" t="n">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -2614,39 +2614,39 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I51" t="n">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="J51" t="n">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="K51" t="n">
         <v>17</v>
       </c>
       <c r="L51" t="n">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="M51" t="n">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="N51" t="n">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>43993</v>
+        <v>44001</v>
       </c>
       <c r="B52" t="n">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" t="n">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -2658,39 +2658,39 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I52" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="J52" t="n">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="K52" t="n">
         <v>17</v>
       </c>
       <c r="L52" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="M52" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="N52" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>43992</v>
+        <v>44000</v>
       </c>
       <c r="B53" t="n">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -2702,39 +2702,39 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I53" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J53" t="n">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="K53" t="n">
         <v>17</v>
       </c>
       <c r="L53" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="M53" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="N53" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>43991</v>
+        <v>43999</v>
       </c>
       <c r="B54" t="n">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -2746,39 +2746,39 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I54" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="J54" t="n">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K54" t="n">
         <v>17</v>
       </c>
       <c r="L54" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="M54" t="n">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="N54" t="n">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>43990</v>
+        <v>43998</v>
       </c>
       <c r="B55" t="n">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -2790,39 +2790,39 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I55" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="J55" t="n">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="K55" t="n">
         <v>17</v>
       </c>
       <c r="L55" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M55" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="N55" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>43989</v>
+        <v>43997</v>
       </c>
       <c r="B56" t="n">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -2834,39 +2834,39 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I56" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="J56" t="n">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="K56" t="n">
         <v>17</v>
       </c>
       <c r="L56" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="M56" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="N56" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>43988</v>
+        <v>43996</v>
       </c>
       <c r="B57" t="n">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D57" t="n">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -2878,39 +2878,39 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I57" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="J57" t="n">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="K57" t="n">
         <v>17</v>
       </c>
       <c r="L57" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="N57" t="n">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>43987</v>
+        <v>43995</v>
       </c>
       <c r="B58" t="n">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C58" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D58" t="n">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -2922,39 +2922,39 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I58" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="J58" t="n">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="K58" t="n">
         <v>17</v>
       </c>
       <c r="L58" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="M58" t="n">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="N58" t="n">
-        <v>69</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>43986</v>
+        <v>43994</v>
       </c>
       <c r="B59" t="n">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="C59" t="n">
         <v>12</v>
       </c>
       <c r="D59" t="n">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -2966,39 +2966,39 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I59" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="J59" t="n">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="K59" t="n">
         <v>17</v>
       </c>
       <c r="L59" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="M59" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="N59" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>43985</v>
+        <v>43993</v>
       </c>
       <c r="B60" t="n">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="C60" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D60" t="n">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -3010,39 +3010,39 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I60" t="n">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="J60" t="n">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="K60" t="n">
         <v>17</v>
       </c>
       <c r="L60" t="n">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="M60" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="N60" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>43984</v>
+        <v>43992</v>
       </c>
       <c r="B61" t="n">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="C61" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -3054,39 +3054,39 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I61" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="J61" t="n">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="K61" t="n">
         <v>17</v>
       </c>
       <c r="L61" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="M61" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="N61" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43983</v>
+        <v>43991</v>
       </c>
       <c r="B62" t="n">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="C62" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -3098,39 +3098,39 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I62" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J62" t="n">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="K62" t="n">
         <v>17</v>
       </c>
       <c r="L62" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M62" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="N62" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43982</v>
+        <v>43990</v>
       </c>
       <c r="B63" t="n">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="C63" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D63" t="n">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -3142,39 +3142,39 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I63" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="J63" t="n">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="K63" t="n">
         <v>17</v>
       </c>
       <c r="L63" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M63" t="n">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="N63" t="n">
-        <v>67</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43981</v>
+        <v>43989</v>
       </c>
       <c r="B64" t="n">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C64" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D64" t="n">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -3186,39 +3186,39 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I64" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J64" t="n">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K64" t="n">
         <v>17</v>
       </c>
       <c r="L64" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M64" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="N64" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>43980</v>
+        <v>43988</v>
       </c>
       <c r="B65" t="n">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C65" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D65" t="n">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -3230,39 +3230,39 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I65" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J65" t="n">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="K65" t="n">
         <v>17</v>
       </c>
       <c r="L65" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M65" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N65" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43979</v>
+        <v>43987</v>
       </c>
       <c r="B66" t="n">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="C66" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D66" t="n">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -3274,39 +3274,39 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I66" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J66" t="n">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="K66" t="n">
         <v>17</v>
       </c>
       <c r="L66" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M66" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N66" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43978</v>
+        <v>43986</v>
       </c>
       <c r="B67" t="n">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="C67" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D67" t="n">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -3318,39 +3318,39 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I67" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J67" t="n">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="K67" t="n">
         <v>17</v>
       </c>
       <c r="L67" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M67" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="N67" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43977</v>
+        <v>43985</v>
       </c>
       <c r="B68" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C68" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D68" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -3362,57 +3362,57 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I68" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J68" t="n">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="K68" t="n">
         <v>17</v>
       </c>
       <c r="L68" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M68" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N68" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43976</v>
+        <v>43984</v>
       </c>
       <c r="B69" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C69" t="n">
+        <v>14</v>
+      </c>
+      <c r="D69" t="n">
+        <v>510</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
         <v>22</v>
-      </c>
-      <c r="D69" t="n">
-        <v>501</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>29</v>
       </c>
       <c r="I69" t="n">
         <v>42</v>
       </c>
       <c r="J69" t="n">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="K69" t="n">
         <v>17</v>
@@ -3421,24 +3421,24 @@
         <v>42</v>
       </c>
       <c r="M69" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="N69" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43975</v>
+        <v>43983</v>
       </c>
       <c r="B70" t="n">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C70" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D70" t="n">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -3450,19 +3450,19 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I70" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J70" t="n">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="K70" t="n">
         <v>17</v>
       </c>
       <c r="L70" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M70" t="n">
         <v>72</v>
@@ -3473,16 +3473,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43974</v>
+        <v>43982</v>
       </c>
       <c r="B71" t="n">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="C71" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D71" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -3494,39 +3494,39 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I71" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J71" t="n">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K71" t="n">
         <v>17</v>
       </c>
       <c r="L71" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M71" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N71" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>43973</v>
+        <v>43981</v>
       </c>
       <c r="B72" t="n">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="C72" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D72" t="n">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -3538,39 +3538,39 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I72" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J72" t="n">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="K72" t="n">
         <v>17</v>
       </c>
       <c r="L72" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M72" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="N72" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43972</v>
+        <v>43980</v>
       </c>
       <c r="B73" t="n">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="C73" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D73" t="n">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -3585,36 +3585,36 @@
         <v>28</v>
       </c>
       <c r="I73" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J73" t="n">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K73" t="n">
         <v>17</v>
       </c>
       <c r="L73" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M73" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N73" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43971</v>
+        <v>43979</v>
       </c>
       <c r="B74" t="n">
         <v>643</v>
       </c>
       <c r="C74" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D74" t="n">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -3626,39 +3626,39 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I74" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J74" t="n">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="K74" t="n">
         <v>17</v>
       </c>
       <c r="L74" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M74" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N74" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43970</v>
+        <v>43978</v>
       </c>
       <c r="B75" t="n">
         <v>643</v>
       </c>
       <c r="C75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D75" t="n">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3670,39 +3670,39 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I75" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J75" t="n">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="K75" t="n">
         <v>17</v>
       </c>
       <c r="L75" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M75" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="N75" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43969</v>
+        <v>43977</v>
       </c>
       <c r="B76" t="n">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="C76" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D76" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -3714,39 +3714,39 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I76" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J76" t="n">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="K76" t="n">
         <v>17</v>
       </c>
       <c r="L76" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M76" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N76" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43968</v>
+        <v>43976</v>
       </c>
       <c r="B77" t="n">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="C77" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D77" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -3758,39 +3758,39 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I77" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J77" t="n">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="K77" t="n">
         <v>17</v>
       </c>
       <c r="L77" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M77" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N77" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43967</v>
+        <v>43975</v>
       </c>
       <c r="B78" t="n">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="C78" t="n">
         <v>19</v>
       </c>
       <c r="D78" t="n">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I78" t="n">
         <v>44</v>
       </c>
       <c r="J78" t="n">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="K78" t="n">
         <v>17</v>
@@ -3817,24 +3817,24 @@
         <v>44</v>
       </c>
       <c r="M78" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N78" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>43966</v>
+        <v>43974</v>
       </c>
       <c r="B79" t="n">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C79" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D79" t="n">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -3846,39 +3846,39 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I79" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J79" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="K79" t="n">
         <v>17</v>
       </c>
       <c r="L79" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M79" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="N79" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43965</v>
+        <v>43973</v>
       </c>
       <c r="B80" t="n">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C80" t="n">
         <v>22</v>
       </c>
       <c r="D80" t="n">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -3890,39 +3890,39 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I80" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J80" t="n">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="K80" t="n">
         <v>17</v>
       </c>
       <c r="L80" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M80" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="N80" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>43964</v>
+        <v>43972</v>
       </c>
       <c r="B81" t="n">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C81" t="n">
         <v>22</v>
       </c>
       <c r="D81" t="n">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -3934,39 +3934,39 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I81" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J81" t="n">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="K81" t="n">
         <v>17</v>
       </c>
       <c r="L81" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M81" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="N81" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>43963</v>
+        <v>43971</v>
       </c>
       <c r="B82" t="n">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C82" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D82" t="n">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -3978,39 +3978,39 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I82" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J82" t="n">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="K82" t="n">
         <v>17</v>
       </c>
       <c r="L82" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M82" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="N82" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43962</v>
+        <v>43970</v>
       </c>
       <c r="B83" t="n">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C83" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D83" t="n">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -4022,39 +4022,39 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I83" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J83" t="n">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="K83" t="n">
         <v>17</v>
       </c>
       <c r="L83" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M83" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="N83" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>43961</v>
+        <v>43969</v>
       </c>
       <c r="B84" t="n">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="C84" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D84" t="n">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -4066,39 +4066,39 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I84" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J84" t="n">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="K84" t="n">
         <v>17</v>
       </c>
       <c r="L84" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M84" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="N84" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>43960</v>
+        <v>43968</v>
       </c>
       <c r="B85" t="n">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="C85" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D85" t="n">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I85" t="n">
         <v>41</v>
       </c>
       <c r="J85" t="n">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="K85" t="n">
         <v>17</v>
@@ -4125,24 +4125,24 @@
         <v>41</v>
       </c>
       <c r="M85" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N85" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>43959</v>
+        <v>43967</v>
       </c>
       <c r="B86" t="n">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="C86" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D86" t="n">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -4154,39 +4154,39 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I86" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J86" t="n">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="K86" t="n">
         <v>17</v>
       </c>
       <c r="L86" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M86" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N86" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>43958</v>
+        <v>43966</v>
       </c>
       <c r="B87" t="n">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="C87" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D87" t="n">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -4198,39 +4198,39 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I87" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J87" t="n">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="K87" t="n">
         <v>17</v>
       </c>
       <c r="L87" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M87" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N87" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>43957</v>
+        <v>43965</v>
       </c>
       <c r="B88" t="n">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="C88" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D88" t="n">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -4242,39 +4242,39 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I88" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J88" t="n">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="K88" t="n">
         <v>17</v>
       </c>
       <c r="L88" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M88" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N88" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>43956</v>
+        <v>43964</v>
       </c>
       <c r="B89" t="n">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="C89" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D89" t="n">
-        <v>448</v>
+        <v>486</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -4286,39 +4286,39 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I89" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J89" t="n">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="K89" t="n">
         <v>17</v>
       </c>
       <c r="L89" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M89" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="N89" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>43955</v>
+        <v>43963</v>
       </c>
       <c r="B90" t="n">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D90" t="n">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -4330,39 +4330,39 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I90" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J90" t="n">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="K90" t="n">
         <v>17</v>
       </c>
       <c r="L90" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M90" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N90" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>43954</v>
+        <v>43962</v>
       </c>
       <c r="B91" t="n">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D91" t="n">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -4374,39 +4374,39 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I91" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J91" t="n">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="K91" t="n">
         <v>17</v>
       </c>
       <c r="L91" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M91" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N91" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>43953</v>
+        <v>43961</v>
       </c>
       <c r="B92" t="n">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D92" t="n">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -4418,39 +4418,39 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I92" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J92" t="n">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="K92" t="n">
         <v>17</v>
       </c>
       <c r="L92" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M92" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="N92" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>43952</v>
+        <v>43960</v>
       </c>
       <c r="B93" t="n">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D93" t="n">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -4462,39 +4462,39 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I93" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J93" t="n">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="K93" t="n">
         <v>17</v>
       </c>
       <c r="L93" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M93" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="N93" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>43951</v>
+        <v>43959</v>
       </c>
       <c r="B94" t="n">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D94" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -4506,39 +4506,39 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I94" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J94" t="n">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="K94" t="n">
         <v>17</v>
       </c>
       <c r="L94" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M94" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="N94" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>43950</v>
+        <v>43958</v>
       </c>
       <c r="B95" t="n">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D95" t="n">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -4550,39 +4550,39 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I95" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J95" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="K95" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L95" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M95" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="N95" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>43949</v>
+        <v>43957</v>
       </c>
       <c r="B96" t="n">
-        <v>589</v>
+        <v>636</v>
       </c>
       <c r="C96" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D96" t="n">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -4594,39 +4594,39 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I96" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J96" t="n">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="K96" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L96" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M96" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N96" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>43948</v>
+        <v>43956</v>
       </c>
       <c r="B97" t="n">
-        <v>589</v>
+        <v>636</v>
       </c>
       <c r="C97" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D97" t="n">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -4641,36 +4641,36 @@
         <v>21</v>
       </c>
       <c r="I97" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J97" t="n">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="K97" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L97" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M97" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N97" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>43947</v>
+        <v>43955</v>
       </c>
       <c r="B98" t="n">
-        <v>589</v>
+        <v>626</v>
       </c>
       <c r="C98" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -4682,39 +4682,39 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I98" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J98" t="n">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="K98" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L98" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M98" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N98" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>43946</v>
+        <v>43954</v>
       </c>
       <c r="B99" t="n">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="C99" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -4729,36 +4729,36 @@
         <v>18</v>
       </c>
       <c r="I99" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J99" t="n">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="K99" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L99" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M99" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N99" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>43945</v>
+        <v>43953</v>
       </c>
       <c r="B100" t="n">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="C100" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -4770,39 +4770,39 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I100" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J100" t="n">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="K100" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L100" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M100" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N100" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>43944</v>
+        <v>43952</v>
       </c>
       <c r="B101" t="n">
-        <v>560</v>
+        <v>616</v>
       </c>
       <c r="C101" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>397</v>
+        <v>471</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -4814,39 +4814,39 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I101" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J101" t="n">
-        <v>348</v>
+        <v>417</v>
       </c>
       <c r="K101" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L101" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M101" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N101" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>43943</v>
+        <v>43951</v>
       </c>
       <c r="B102" t="n">
-        <v>560</v>
+        <v>616</v>
       </c>
       <c r="C102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>371</v>
+        <v>462</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -4858,19 +4858,19 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I102" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J102" t="n">
-        <v>320</v>
+        <v>411</v>
       </c>
       <c r="K102" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L102" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M102" t="n">
         <v>51</v>
@@ -4881,16 +4881,16 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>43942</v>
+        <v>43950</v>
       </c>
       <c r="B103" t="n">
-        <v>560</v>
+        <v>609</v>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D103" t="n">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -4902,39 +4902,39 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I103" t="n">
         <v>30</v>
       </c>
       <c r="J103" t="n">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="K103" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L103" t="n">
         <v>30</v>
       </c>
       <c r="M103" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N103" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>43941</v>
+        <v>43949</v>
       </c>
       <c r="B104" t="n">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="C104" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D104" t="n">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -4946,39 +4946,39 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I104" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J104" t="n">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="K104" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L104" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M104" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N104" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>43940</v>
+        <v>43948</v>
       </c>
       <c r="B105" t="n">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D105" t="n">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -4993,36 +4993,36 @@
         <v>21</v>
       </c>
       <c r="I105" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J105" t="n">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="K105" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L105" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M105" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N105" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>43939</v>
+        <v>43947</v>
       </c>
       <c r="B106" t="n">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D106" t="n">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -5034,39 +5034,39 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I106" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J106" t="n">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="K106" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L106" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M106" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N106" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>43938</v>
+        <v>43946</v>
       </c>
       <c r="B107" t="n">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D107" t="n">
-        <v>360</v>
+        <v>435</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -5078,83 +5078,83 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I107" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J107" t="n">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="K107" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L107" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M107" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N107" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>43937</v>
+        <v>43945</v>
       </c>
       <c r="B108" t="n">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="C108" t="n">
         <v>8</v>
       </c>
       <c r="D108" t="n">
+        <v>442</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>25</v>
+      </c>
+      <c r="I108" t="n">
+        <v>34</v>
+      </c>
+      <c r="J108" t="n">
         <v>383</v>
       </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0</v>
-      </c>
-      <c r="H108" t="n">
-        <v>18</v>
-      </c>
-      <c r="I108" t="n">
-        <v>39</v>
-      </c>
-      <c r="J108" t="n">
-        <v>326</v>
-      </c>
       <c r="K108" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L108" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M108" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N108" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>43936</v>
+        <v>43944</v>
       </c>
       <c r="B109" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C109" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D109" t="n">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -5166,39 +5166,39 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I109" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J109" t="n">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="K109" t="n">
         <v>15</v>
       </c>
       <c r="L109" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M109" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N109" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>43935</v>
+        <v>43943</v>
       </c>
       <c r="B110" t="n">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C110" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D110" t="n">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -5210,39 +5210,39 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I110" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J110" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="K110" t="n">
         <v>15</v>
       </c>
       <c r="L110" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M110" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N110" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>43934</v>
+        <v>43942</v>
       </c>
       <c r="B111" t="n">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C111" t="n">
         <v>5</v>
       </c>
       <c r="D111" t="n">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -5254,39 +5254,39 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I111" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J111" t="n">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="K111" t="n">
         <v>15</v>
       </c>
       <c r="L111" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M111" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N111" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>43933</v>
+        <v>43941</v>
       </c>
       <c r="B112" t="n">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C112" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D112" t="n">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -5298,39 +5298,39 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I112" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J112" t="n">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="K112" t="n">
         <v>15</v>
       </c>
       <c r="L112" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M112" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N112" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>43932</v>
+        <v>43940</v>
       </c>
       <c r="B113" t="n">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C113" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D113" t="n">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -5342,39 +5342,39 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I113" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J113" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K113" t="n">
         <v>15</v>
       </c>
       <c r="L113" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M113" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N113" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>43931</v>
+        <v>43939</v>
       </c>
       <c r="B114" t="n">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C114" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D114" t="n">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -5389,36 +5389,36 @@
         <v>18</v>
       </c>
       <c r="I114" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J114" t="n">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="K114" t="n">
         <v>15</v>
       </c>
       <c r="L114" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M114" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N114" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>43930</v>
+        <v>43938</v>
       </c>
       <c r="B115" t="n">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C115" t="n">
         <v>5</v>
       </c>
       <c r="D115" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -5430,39 +5430,39 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I115" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J115" t="n">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="K115" t="n">
         <v>15</v>
       </c>
       <c r="L115" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M115" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N115" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>43929</v>
+        <v>43937</v>
       </c>
       <c r="B116" t="n">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C116" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D116" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -5474,39 +5474,39 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I116" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J116" t="n">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K116" t="n">
         <v>15</v>
       </c>
       <c r="L116" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M116" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N116" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>43928</v>
+        <v>43936</v>
       </c>
       <c r="B117" t="n">
-        <v>525</v>
+        <v>556</v>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D117" t="n">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -5518,39 +5518,39 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I117" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J117" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K117" t="n">
         <v>15</v>
       </c>
       <c r="L117" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M117" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="N117" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>43927</v>
+        <v>43935</v>
       </c>
       <c r="B118" t="n">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="C118" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -5562,39 +5562,39 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I118" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J118" t="n">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="K118" t="n">
         <v>15</v>
       </c>
       <c r="L118" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M118" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N118" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>43926</v>
+        <v>43934</v>
       </c>
       <c r="B119" t="n">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="C119" t="n">
         <v>5</v>
       </c>
       <c r="D119" t="n">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -5606,39 +5606,39 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I119" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J119" t="n">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="K119" t="n">
         <v>15</v>
       </c>
       <c r="L119" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M119" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N119" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>43925</v>
+        <v>43933</v>
       </c>
       <c r="B120" t="n">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="C120" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D120" t="n">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -5650,39 +5650,39 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I120" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J120" t="n">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="K120" t="n">
         <v>15</v>
       </c>
       <c r="L120" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M120" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N120" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>43924</v>
+        <v>43932</v>
       </c>
       <c r="B121" t="n">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -5694,10 +5694,10 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I121" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J121" t="n">
         <v>318</v>
@@ -5706,27 +5706,27 @@
         <v>15</v>
       </c>
       <c r="L121" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M121" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N121" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>43923</v>
+        <v>43931</v>
       </c>
       <c r="B122" t="n">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="C122" t="n">
         <v>5</v>
       </c>
       <c r="D122" t="n">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -5738,30 +5738,30 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I122" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="J122" t="n">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="K122" t="n">
         <v>15</v>
       </c>
       <c r="L122" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M122" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N122" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>43922</v>
+        <v>43930</v>
       </c>
       <c r="B123" t="n">
         <v>525</v>
@@ -5770,7 +5770,7 @@
         <v>5</v>
       </c>
       <c r="D123" t="n">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -5782,39 +5782,39 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I123" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J123" t="n">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="K123" t="n">
         <v>15</v>
       </c>
       <c r="L123" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M123" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N123" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>43921</v>
+        <v>43929</v>
       </c>
       <c r="B124" t="n">
         <v>525</v>
       </c>
       <c r="C124" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D124" t="n">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -5826,39 +5826,39 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I124" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J124" t="n">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="K124" t="n">
         <v>15</v>
       </c>
       <c r="L124" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M124" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N124" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>43920</v>
+        <v>43928</v>
       </c>
       <c r="B125" t="n">
-        <v>479</v>
+        <v>525</v>
       </c>
       <c r="C125" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D125" t="n">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -5870,39 +5870,39 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I125" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J125" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K125" t="n">
         <v>15</v>
       </c>
       <c r="L125" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M125" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N125" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>43919</v>
+        <v>43927</v>
       </c>
       <c r="B126" t="n">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="C126" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D126" t="n">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -5914,39 +5914,39 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I126" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J126" t="n">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="K126" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L126" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M126" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N126" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>43918</v>
+        <v>43926</v>
       </c>
       <c r="B127" t="n">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="C127" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D127" t="n">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -5958,39 +5958,39 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I127" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J127" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K127" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L127" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M127" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N127" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>43917</v>
+        <v>43925</v>
       </c>
       <c r="B128" t="n">
-        <v>427</v>
+        <v>515</v>
       </c>
       <c r="C128" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D128" t="n">
-        <v>307</v>
+        <v>377</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -6005,36 +6005,36 @@
         <v>28</v>
       </c>
       <c r="I128" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J128" t="n">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="K128" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L128" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M128" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="N128" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>43916</v>
+        <v>43924</v>
       </c>
       <c r="B129" t="n">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129" t="n">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -6049,36 +6049,36 @@
         <v>32</v>
       </c>
       <c r="I129" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="J129" t="n">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="K129" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L129" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M129" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N129" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>43915</v>
+        <v>43923</v>
       </c>
       <c r="B130" t="n">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D130" t="n">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -6090,39 +6090,39 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
+        <v>30</v>
+      </c>
+      <c r="I130" t="n">
         <v>26</v>
       </c>
-      <c r="I130" t="n">
-        <v>9</v>
-      </c>
       <c r="J130" t="n">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="K130" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L130" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M130" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N130" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>43914</v>
+        <v>43922</v>
       </c>
       <c r="B131" t="n">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D131" t="n">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -6134,39 +6134,39 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I131" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J131" t="n">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="K131" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L131" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M131" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="N131" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>43913</v>
+        <v>43921</v>
       </c>
       <c r="B132" t="n">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="C132" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D132" t="n">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -6178,39 +6178,39 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I132" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J132" t="n">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="K132" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L132" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M132" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N132" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>43912</v>
+        <v>43920</v>
       </c>
       <c r="B133" t="n">
-        <v>397</v>
+        <v>479</v>
       </c>
       <c r="C133" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D133" t="n">
-        <v>270</v>
+        <v>345</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -6222,39 +6222,39 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I133" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J133" t="n">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="K133" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L133" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M133" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N133" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>43911</v>
+        <v>43919</v>
       </c>
       <c r="B134" t="n">
-        <v>394</v>
+        <v>475</v>
       </c>
       <c r="C134" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D134" t="n">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -6266,39 +6266,39 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I134" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J134" t="n">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="K134" t="n">
         <v>14</v>
       </c>
       <c r="L134" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M134" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="N134" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>43910</v>
+        <v>43918</v>
       </c>
       <c r="B135" t="n">
-        <v>332</v>
+        <v>474</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -6310,68 +6310,420 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I135" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J135" t="n">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="K135" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L135" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M135" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="N135" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
+        <v>43917</v>
+      </c>
+      <c r="B136" t="n">
+        <v>427</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>307</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>28</v>
+      </c>
+      <c r="I136" t="n">
+        <v>10</v>
+      </c>
+      <c r="J136" t="n">
+        <v>269</v>
+      </c>
+      <c r="K136" t="n">
+        <v>14</v>
+      </c>
+      <c r="L136" t="n">
+        <v>10</v>
+      </c>
+      <c r="M136" t="n">
+        <v>38</v>
+      </c>
+      <c r="N136" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>43916</v>
+      </c>
+      <c r="B137" t="n">
+        <v>466</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>329</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>32</v>
+      </c>
+      <c r="I137" t="n">
+        <v>11</v>
+      </c>
+      <c r="J137" t="n">
+        <v>286</v>
+      </c>
+      <c r="K137" t="n">
+        <v>14</v>
+      </c>
+      <c r="L137" t="n">
+        <v>11</v>
+      </c>
+      <c r="M137" t="n">
+        <v>43</v>
+      </c>
+      <c r="N137" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>43915</v>
+      </c>
+      <c r="B138" t="n">
+        <v>477</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>339</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>26</v>
+      </c>
+      <c r="I138" t="n">
+        <v>9</v>
+      </c>
+      <c r="J138" t="n">
+        <v>304</v>
+      </c>
+      <c r="K138" t="n">
+        <v>14</v>
+      </c>
+      <c r="L138" t="n">
+        <v>9</v>
+      </c>
+      <c r="M138" t="n">
+        <v>35</v>
+      </c>
+      <c r="N138" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>43914</v>
+      </c>
+      <c r="B139" t="n">
+        <v>470</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>327</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>26</v>
+      </c>
+      <c r="I139" t="n">
+        <v>9</v>
+      </c>
+      <c r="J139" t="n">
+        <v>292</v>
+      </c>
+      <c r="K139" t="n">
+        <v>14</v>
+      </c>
+      <c r="L139" t="n">
+        <v>9</v>
+      </c>
+      <c r="M139" t="n">
+        <v>35</v>
+      </c>
+      <c r="N139" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>43913</v>
+      </c>
+      <c r="B140" t="n">
+        <v>470</v>
+      </c>
+      <c r="C140" t="n">
+        <v>10</v>
+      </c>
+      <c r="D140" t="n">
+        <v>336</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>25</v>
+      </c>
+      <c r="I140" t="n">
+        <v>6</v>
+      </c>
+      <c r="J140" t="n">
+        <v>305</v>
+      </c>
+      <c r="K140" t="n">
+        <v>14</v>
+      </c>
+      <c r="L140" t="n">
+        <v>6</v>
+      </c>
+      <c r="M140" t="n">
+        <v>31</v>
+      </c>
+      <c r="N140" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>43912</v>
+      </c>
+      <c r="B141" t="n">
+        <v>397</v>
+      </c>
+      <c r="C141" t="n">
+        <v>12</v>
+      </c>
+      <c r="D141" t="n">
+        <v>270</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>19</v>
+      </c>
+      <c r="I141" t="n">
+        <v>5</v>
+      </c>
+      <c r="J141" t="n">
+        <v>246</v>
+      </c>
+      <c r="K141" t="n">
+        <v>14</v>
+      </c>
+      <c r="L141" t="n">
+        <v>5</v>
+      </c>
+      <c r="M141" t="n">
+        <v>24</v>
+      </c>
+      <c r="N141" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>43911</v>
+      </c>
+      <c r="B142" t="n">
+        <v>394</v>
+      </c>
+      <c r="C142" t="n">
+        <v>52</v>
+      </c>
+      <c r="D142" t="n">
+        <v>294</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>15</v>
+      </c>
+      <c r="I142" t="n">
+        <v>4</v>
+      </c>
+      <c r="J142" t="n">
+        <v>275</v>
+      </c>
+      <c r="K142" t="n">
+        <v>14</v>
+      </c>
+      <c r="L142" t="n">
+        <v>4</v>
+      </c>
+      <c r="M142" t="n">
+        <v>19</v>
+      </c>
+      <c r="N142" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>43910</v>
+      </c>
+      <c r="B143" t="n">
+        <v>332</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>261</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2</v>
+      </c>
+      <c r="J143" t="n">
+        <v>252</v>
+      </c>
+      <c r="K143" t="n">
+        <v>11</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>9</v>
+      </c>
+      <c r="N143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
         <v>43909</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B144" t="n">
         <v>220</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C144" t="n">
         <v>1</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D144" t="n">
         <v>165</v>
       </c>
-      <c r="E136" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0</v>
-      </c>
-      <c r="H136" t="n">
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
         <v>6</v>
       </c>
-      <c r="I136" t="n">
+      <c r="I144" t="n">
         <v>1</v>
       </c>
-      <c r="J136" t="n">
+      <c r="J144" t="n">
         <v>158</v>
       </c>
-      <c r="K136" t="n">
+      <c r="K144" t="n">
         <v>8</v>
       </c>
-      <c r="L136" t="n">
+      <c r="L144" t="n">
         <v>1</v>
       </c>
-      <c r="M136" t="n">
+      <c r="M144" t="n">
         <v>7</v>
       </c>
-      <c r="N136" t="n">
+      <c r="N144" t="n">
         <v>7</v>
       </c>
     </row>

--- a/uti_agregado_diario_imputada_adulto.xlsx
+++ b/uti_agregado_diario_imputada_adulto.xlsx
@@ -437,764 +437,764 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44051</v>
+        <v>43909</v>
       </c>
       <c r="B2" t="n">
-        <v>826</v>
+        <v>220</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>704</v>
+        <v>165</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>158</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
         <v>7</v>
       </c>
-      <c r="F2" t="n">
-        <v>19</v>
-      </c>
-      <c r="G2" t="n">
-        <v>16</v>
-      </c>
-      <c r="H2" t="n">
-        <v>42</v>
-      </c>
-      <c r="I2" t="n">
-        <v>321</v>
-      </c>
-      <c r="J2" t="n">
-        <v>341</v>
-      </c>
-      <c r="K2" t="n">
-        <v>17</v>
-      </c>
-      <c r="L2" t="n">
-        <v>321</v>
-      </c>
-      <c r="M2" t="n">
-        <v>363</v>
-      </c>
       <c r="N2" t="n">
-        <v>370</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44050</v>
+        <v>43910</v>
       </c>
       <c r="B3" t="n">
-        <v>826</v>
+        <v>332</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>718</v>
+        <v>261</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H3" t="n">
-        <v>44</v>
-      </c>
       <c r="I3" t="n">
-        <v>326</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>348</v>
+        <v>252</v>
       </c>
       <c r="K3" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>326</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>370</v>
+        <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>377</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44049</v>
+        <v>43911</v>
       </c>
       <c r="B4" t="n">
-        <v>819</v>
+        <v>394</v>
       </c>
       <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>294</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>15</v>
       </c>
-      <c r="D4" t="n">
-        <v>714</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>275</v>
+      </c>
+      <c r="K4" t="n">
         <v>14</v>
       </c>
-      <c r="F4" t="n">
-        <v>26</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11</v>
-      </c>
-      <c r="H4" t="n">
-        <v>42</v>
-      </c>
-      <c r="I4" t="n">
-        <v>331</v>
-      </c>
-      <c r="J4" t="n">
-        <v>341</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17</v>
-      </c>
       <c r="L4" t="n">
-        <v>331</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>373</v>
+        <v>19</v>
       </c>
       <c r="N4" t="n">
-        <v>387</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44048</v>
+        <v>43912</v>
       </c>
       <c r="B5" t="n">
-        <v>821</v>
+        <v>397</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>709</v>
+        <v>270</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I5" t="n">
-        <v>324</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>344</v>
+        <v>246</v>
       </c>
       <c r="K5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L5" t="n">
-        <v>324</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="N5" t="n">
-        <v>376</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44047</v>
+        <v>43913</v>
       </c>
       <c r="B6" t="n">
-        <v>817</v>
+        <v>470</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>725</v>
+        <v>336</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I6" t="n">
-        <v>309</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="K6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L6" t="n">
-        <v>309</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>367</v>
+        <v>31</v>
       </c>
       <c r="N6" t="n">
-        <v>377</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44046</v>
+        <v>43914</v>
       </c>
       <c r="B7" t="n">
-        <v>812</v>
+        <v>470</v>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>709</v>
+        <v>327</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I7" t="n">
-        <v>314</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>350</v>
+        <v>292</v>
       </c>
       <c r="K7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L7" t="n">
-        <v>314</v>
+        <v>9</v>
       </c>
       <c r="M7" t="n">
-        <v>359</v>
+        <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>371</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44045</v>
+        <v>43915</v>
       </c>
       <c r="B8" t="n">
-        <v>812</v>
+        <v>477</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>711</v>
+        <v>339</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I8" t="n">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="K8" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L8" t="n">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="M8" t="n">
-        <v>355</v>
+        <v>35</v>
       </c>
       <c r="N8" t="n">
-        <v>370</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44044</v>
+        <v>43916</v>
       </c>
       <c r="B9" t="n">
-        <v>812</v>
+        <v>466</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>697</v>
+        <v>329</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I9" t="n">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="K9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L9" t="n">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="M9" t="n">
-        <v>356</v>
+        <v>43</v>
       </c>
       <c r="N9" t="n">
-        <v>373</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44043</v>
+        <v>43917</v>
       </c>
       <c r="B10" t="n">
-        <v>813</v>
+        <v>427</v>
       </c>
       <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>307</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>28</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>269</v>
+      </c>
+      <c r="K10" t="n">
         <v>14</v>
       </c>
-      <c r="D10" t="n">
-        <v>713</v>
-      </c>
-      <c r="E10" t="n">
-        <v>15</v>
-      </c>
-      <c r="F10" t="n">
-        <v>21</v>
-      </c>
-      <c r="G10" t="n">
-        <v>41</v>
-      </c>
-      <c r="H10" t="n">
-        <v>44</v>
-      </c>
-      <c r="I10" t="n">
-        <v>307</v>
-      </c>
-      <c r="J10" t="n">
-        <v>362</v>
-      </c>
-      <c r="K10" t="n">
-        <v>17</v>
-      </c>
       <c r="L10" t="n">
-        <v>307</v>
+        <v>10</v>
       </c>
       <c r="M10" t="n">
-        <v>351</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
-        <v>366</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44042</v>
+        <v>43918</v>
       </c>
       <c r="B11" t="n">
-        <v>799</v>
+        <v>474</v>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>683</v>
+        <v>347</v>
       </c>
       <c r="E11" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>306</v>
+      </c>
+      <c r="K11" t="n">
         <v>14</v>
       </c>
-      <c r="G11" t="n">
-        <v>38</v>
-      </c>
-      <c r="H11" t="n">
-        <v>34</v>
-      </c>
-      <c r="I11" t="n">
-        <v>303</v>
-      </c>
-      <c r="J11" t="n">
-        <v>346</v>
-      </c>
-      <c r="K11" t="n">
-        <v>17</v>
-      </c>
       <c r="L11" t="n">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="M11" t="n">
-        <v>337</v>
+        <v>41</v>
       </c>
       <c r="N11" t="n">
-        <v>356</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44041</v>
+        <v>43919</v>
       </c>
       <c r="B12" t="n">
-        <v>790</v>
+        <v>475</v>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>692</v>
+        <v>340</v>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I12" t="n">
-        <v>301</v>
+        <v>18</v>
       </c>
       <c r="J12" t="n">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="K12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L12" t="n">
-        <v>301</v>
+        <v>18</v>
       </c>
       <c r="M12" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>366</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44040</v>
+        <v>43920</v>
       </c>
       <c r="B13" t="n">
-        <v>788</v>
+        <v>479</v>
       </c>
       <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>345</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>29</v>
+      </c>
+      <c r="I13" t="n">
         <v>20</v>
       </c>
-      <c r="D13" t="n">
-        <v>690</v>
-      </c>
-      <c r="E13" t="n">
-        <v>17</v>
-      </c>
-      <c r="F13" t="n">
-        <v>24</v>
-      </c>
-      <c r="G13" t="n">
-        <v>37</v>
-      </c>
-      <c r="H13" t="n">
-        <v>54</v>
-      </c>
-      <c r="I13" t="n">
-        <v>304</v>
-      </c>
       <c r="J13" t="n">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="K13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="M13" t="n">
-        <v>358</v>
+        <v>49</v>
       </c>
       <c r="N13" t="n">
-        <v>375</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44039</v>
+        <v>43921</v>
       </c>
       <c r="B14" t="n">
-        <v>788</v>
+        <v>525</v>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>683</v>
+        <v>387</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I14" t="n">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="J14" t="n">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="K14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="M14" t="n">
-        <v>353</v>
+        <v>49</v>
       </c>
       <c r="N14" t="n">
-        <v>366</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44038</v>
+        <v>43922</v>
       </c>
       <c r="B15" t="n">
-        <v>786</v>
+        <v>525</v>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>682</v>
+        <v>380</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I15" t="n">
-        <v>315</v>
+        <v>25</v>
       </c>
       <c r="J15" t="n">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L15" t="n">
-        <v>315</v>
+        <v>25</v>
       </c>
       <c r="M15" t="n">
-        <v>354</v>
+        <v>58</v>
       </c>
       <c r="N15" t="n">
-        <v>366</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44037</v>
+        <v>43923</v>
       </c>
       <c r="B16" t="n">
-        <v>792</v>
+        <v>515</v>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>702</v>
+        <v>378</v>
       </c>
       <c r="E16" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I16" t="n">
-        <v>312</v>
+        <v>26</v>
       </c>
       <c r="J16" t="n">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="K16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
-        <v>312</v>
+        <v>26</v>
       </c>
       <c r="M16" t="n">
-        <v>347</v>
+        <v>56</v>
       </c>
       <c r="N16" t="n">
-        <v>366</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44036</v>
+        <v>43924</v>
       </c>
       <c r="B17" t="n">
-        <v>786</v>
+        <v>515</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>682</v>
+        <v>379</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I17" t="n">
-        <v>295</v>
+        <v>29</v>
       </c>
       <c r="J17" t="n">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="K17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L17" t="n">
-        <v>295</v>
+        <v>29</v>
       </c>
       <c r="M17" t="n">
-        <v>330</v>
+        <v>61</v>
       </c>
       <c r="N17" t="n">
-        <v>346</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44035</v>
+        <v>43925</v>
       </c>
       <c r="B18" t="n">
-        <v>788</v>
+        <v>515</v>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>677</v>
+        <v>377</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I18" t="n">
-        <v>285</v>
+        <v>32</v>
       </c>
       <c r="J18" t="n">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="K18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L18" t="n">
-        <v>285</v>
+        <v>32</v>
       </c>
       <c r="M18" t="n">
-        <v>327</v>
+        <v>60</v>
       </c>
       <c r="N18" t="n">
-        <v>337</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44034</v>
+        <v>43926</v>
       </c>
       <c r="B19" t="n">
-        <v>775</v>
+        <v>515</v>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>678</v>
+        <v>365</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1206,39 +1206,39 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I19" t="n">
-        <v>286</v>
+        <v>31</v>
       </c>
       <c r="J19" t="n">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="K19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L19" t="n">
-        <v>286</v>
+        <v>31</v>
       </c>
       <c r="M19" t="n">
-        <v>326</v>
+        <v>57</v>
       </c>
       <c r="N19" t="n">
-        <v>326</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44033</v>
+        <v>43927</v>
       </c>
       <c r="B20" t="n">
-        <v>784</v>
+        <v>515</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>694</v>
+        <v>363</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1250,39 +1250,39 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I20" t="n">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="J20" t="n">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="K20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L20" t="n">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="M20" t="n">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="N20" t="n">
-        <v>336</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44032</v>
+        <v>43928</v>
       </c>
       <c r="B21" t="n">
-        <v>756</v>
+        <v>525</v>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>674</v>
+        <v>361</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1294,39 +1294,39 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I21" t="n">
-        <v>280</v>
+        <v>33</v>
       </c>
       <c r="J21" t="n">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L21" t="n">
-        <v>280</v>
+        <v>33</v>
       </c>
       <c r="M21" t="n">
-        <v>322</v>
+        <v>61</v>
       </c>
       <c r="N21" t="n">
-        <v>322</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44031</v>
+        <v>43929</v>
       </c>
       <c r="B22" t="n">
-        <v>756</v>
+        <v>525</v>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>678</v>
+        <v>378</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1338,39 +1338,39 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I22" t="n">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="J22" t="n">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="K22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="M22" t="n">
-        <v>311</v>
+        <v>56</v>
       </c>
       <c r="N22" t="n">
-        <v>311</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44030</v>
+        <v>43930</v>
       </c>
       <c r="B23" t="n">
-        <v>748</v>
+        <v>525</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>665</v>
+        <v>356</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1382,83 +1382,83 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="J23" t="n">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="K23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L23" t="n">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="M23" t="n">
-        <v>306</v>
+        <v>62</v>
       </c>
       <c r="N23" t="n">
-        <v>306</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44029</v>
+        <v>43931</v>
       </c>
       <c r="B24" t="n">
-        <v>748</v>
+        <v>525</v>
       </c>
       <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>360</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>18</v>
       </c>
-      <c r="D24" t="n">
-        <v>650</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>42</v>
-      </c>
       <c r="I24" t="n">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="J24" t="n">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="K24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L24" t="n">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="M24" t="n">
-        <v>305</v>
+        <v>61</v>
       </c>
       <c r="N24" t="n">
-        <v>305</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44028</v>
+        <v>43932</v>
       </c>
       <c r="B25" t="n">
-        <v>746</v>
+        <v>525</v>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>655</v>
+        <v>380</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1470,39 +1470,39 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I25" t="n">
-        <v>251</v>
+        <v>40</v>
       </c>
       <c r="J25" t="n">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="K25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L25" t="n">
-        <v>251</v>
+        <v>40</v>
       </c>
       <c r="M25" t="n">
-        <v>288</v>
+        <v>62</v>
       </c>
       <c r="N25" t="n">
-        <v>288</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44027</v>
+        <v>43933</v>
       </c>
       <c r="B26" t="n">
-        <v>756</v>
+        <v>525</v>
       </c>
       <c r="C26" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>640</v>
+        <v>351</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1514,39 +1514,39 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>18</v>
+      </c>
+      <c r="I26" t="n">
         <v>38</v>
       </c>
-      <c r="I26" t="n">
-        <v>241</v>
-      </c>
       <c r="J26" t="n">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="K26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L26" t="n">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="M26" t="n">
-        <v>279</v>
+        <v>56</v>
       </c>
       <c r="N26" t="n">
-        <v>279</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44026</v>
+        <v>43934</v>
       </c>
       <c r="B27" t="n">
-        <v>738</v>
+        <v>525</v>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>613</v>
+        <v>350</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1558,39 +1558,39 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I27" t="n">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="J27" t="n">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="K27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="M27" t="n">
-        <v>270</v>
+        <v>59</v>
       </c>
       <c r="N27" t="n">
-        <v>270</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44025</v>
+        <v>43935</v>
       </c>
       <c r="B28" t="n">
-        <v>728</v>
+        <v>525</v>
       </c>
       <c r="C28" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>605</v>
+        <v>327</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1602,39 +1602,39 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I28" t="n">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="J28" t="n">
-        <v>346</v>
+        <v>270</v>
       </c>
       <c r="K28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L28" t="n">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="M28" t="n">
-        <v>259</v>
+        <v>57</v>
       </c>
       <c r="N28" t="n">
-        <v>259</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44024</v>
+        <v>43936</v>
       </c>
       <c r="B29" t="n">
-        <v>738</v>
+        <v>556</v>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
-        <v>631</v>
+        <v>353</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1646,39 +1646,39 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>11</v>
+      </c>
+      <c r="I29" t="n">
         <v>39</v>
       </c>
-      <c r="I29" t="n">
-        <v>220</v>
-      </c>
       <c r="J29" t="n">
-        <v>372</v>
+        <v>303</v>
       </c>
       <c r="K29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L29" t="n">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="M29" t="n">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>259</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44023</v>
+        <v>43937</v>
       </c>
       <c r="B30" t="n">
-        <v>738</v>
+        <v>560</v>
       </c>
       <c r="C30" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>630</v>
+        <v>383</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1690,39 +1690,39 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I30" t="n">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="J30" t="n">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="K30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L30" t="n">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="M30" t="n">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="N30" t="n">
-        <v>250</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44022</v>
+        <v>43938</v>
       </c>
       <c r="B31" t="n">
-        <v>733</v>
+        <v>560</v>
       </c>
       <c r="C31" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>614</v>
+        <v>360</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1734,39 +1734,39 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I31" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="J31" t="n">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="K31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L31" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="M31" t="n">
-        <v>243</v>
+        <v>59</v>
       </c>
       <c r="N31" t="n">
-        <v>243</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44021</v>
+        <v>43939</v>
       </c>
       <c r="B32" t="n">
-        <v>733</v>
+        <v>560</v>
       </c>
       <c r="C32" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>616</v>
+        <v>374</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1778,39 +1778,39 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I32" t="n">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="J32" t="n">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="K32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L32" t="n">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="M32" t="n">
-        <v>234</v>
+        <v>56</v>
       </c>
       <c r="N32" t="n">
-        <v>234</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44020</v>
+        <v>43940</v>
       </c>
       <c r="B33" t="n">
-        <v>723</v>
+        <v>560</v>
       </c>
       <c r="C33" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>602</v>
+        <v>374</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1822,39 +1822,39 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I33" t="n">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="J33" t="n">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="K33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L33" t="n">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="M33" t="n">
-        <v>236</v>
+        <v>58</v>
       </c>
       <c r="N33" t="n">
-        <v>236</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44019</v>
+        <v>43941</v>
       </c>
       <c r="B34" t="n">
-        <v>723</v>
+        <v>560</v>
       </c>
       <c r="C34" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>607</v>
+        <v>374</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1866,39 +1866,39 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I34" t="n">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="J34" t="n">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="K34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L34" t="n">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="M34" t="n">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="N34" t="n">
-        <v>230</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44018</v>
+        <v>43942</v>
       </c>
       <c r="B35" t="n">
-        <v>718</v>
+        <v>560</v>
       </c>
       <c r="C35" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>592</v>
+        <v>385</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1910,39 +1910,39 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I35" t="n">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="J35" t="n">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="K35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L35" t="n">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="M35" t="n">
-        <v>216</v>
+        <v>53</v>
       </c>
       <c r="N35" t="n">
-        <v>216</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44017</v>
+        <v>43943</v>
       </c>
       <c r="B36" t="n">
-        <v>708</v>
+        <v>560</v>
       </c>
       <c r="C36" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>585</v>
+        <v>371</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1954,39 +1954,39 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I36" t="n">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="J36" t="n">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="K36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L36" t="n">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="M36" t="n">
-        <v>219</v>
+        <v>51</v>
       </c>
       <c r="N36" t="n">
-        <v>219</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44016</v>
+        <v>43944</v>
       </c>
       <c r="B37" t="n">
-        <v>715</v>
+        <v>560</v>
       </c>
       <c r="C37" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>580</v>
+        <v>397</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1998,39 +1998,39 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I37" t="n">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="J37" t="n">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="K37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L37" t="n">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="M37" t="n">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="N37" t="n">
-        <v>212</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44015</v>
+        <v>43945</v>
       </c>
       <c r="B38" t="n">
-        <v>709</v>
+        <v>589</v>
       </c>
       <c r="C38" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>581</v>
+        <v>442</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2042,39 +2042,39 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I38" t="n">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="J38" t="n">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="K38" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L38" t="n">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="M38" t="n">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="N38" t="n">
-        <v>222</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44014</v>
+        <v>43946</v>
       </c>
       <c r="B39" t="n">
-        <v>702</v>
+        <v>589</v>
       </c>
       <c r="C39" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D39" t="n">
-        <v>576</v>
+        <v>435</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2086,39 +2086,39 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I39" t="n">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="J39" t="n">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="K39" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L39" t="n">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="M39" t="n">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="N39" t="n">
-        <v>210</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44013</v>
+        <v>43947</v>
       </c>
       <c r="B40" t="n">
-        <v>702</v>
+        <v>589</v>
       </c>
       <c r="C40" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D40" t="n">
-        <v>551</v>
+        <v>408</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2130,39 +2130,39 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I40" t="n">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="J40" t="n">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K40" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L40" t="n">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="M40" t="n">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="N40" t="n">
-        <v>186</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44012</v>
+        <v>43948</v>
       </c>
       <c r="B41" t="n">
-        <v>703</v>
+        <v>589</v>
       </c>
       <c r="C41" t="n">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>578</v>
+        <v>408</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -2174,39 +2174,39 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I41" t="n">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="J41" t="n">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="K41" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L41" t="n">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="M41" t="n">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="N41" t="n">
-        <v>188</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44011</v>
+        <v>43949</v>
       </c>
       <c r="B42" t="n">
-        <v>712</v>
+        <v>589</v>
       </c>
       <c r="C42" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>551</v>
+        <v>418</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2218,39 +2218,39 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I42" t="n">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="J42" t="n">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K42" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L42" t="n">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="M42" t="n">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="N42" t="n">
-        <v>177</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44010</v>
+        <v>43950</v>
       </c>
       <c r="B43" t="n">
-        <v>710</v>
+        <v>609</v>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2262,83 +2262,83 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I43" t="n">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="J43" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K43" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L43" t="n">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="M43" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="N43" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44009</v>
+        <v>43951</v>
       </c>
       <c r="B44" t="n">
-        <v>696</v>
+        <v>616</v>
       </c>
       <c r="C44" t="n">
+        <v>6</v>
+      </c>
+      <c r="D44" t="n">
+        <v>462</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>22</v>
       </c>
-      <c r="D44" t="n">
-        <v>531</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>21</v>
-      </c>
       <c r="I44" t="n">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="J44" t="n">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="K44" t="n">
         <v>17</v>
       </c>
       <c r="L44" t="n">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="M44" t="n">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="N44" t="n">
-        <v>145</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44008</v>
+        <v>43952</v>
       </c>
       <c r="B45" t="n">
-        <v>696</v>
+        <v>616</v>
       </c>
       <c r="C45" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>525</v>
+        <v>471</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2350,39 +2350,39 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I45" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="J45" t="n">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="K45" t="n">
         <v>17</v>
       </c>
       <c r="L45" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="M45" t="n">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="N45" t="n">
-        <v>143</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44007</v>
+        <v>43953</v>
       </c>
       <c r="B46" t="n">
-        <v>696</v>
+        <v>616</v>
       </c>
       <c r="C46" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>541</v>
+        <v>467</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2394,39 +2394,39 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I46" t="n">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="J46" t="n">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="K46" t="n">
         <v>17</v>
       </c>
       <c r="L46" t="n">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="M46" t="n">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="N46" t="n">
-        <v>144</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44006</v>
+        <v>43954</v>
       </c>
       <c r="B47" t="n">
-        <v>695</v>
+        <v>616</v>
       </c>
       <c r="C47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>553</v>
+        <v>451</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2438,39 +2438,39 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I47" t="n">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="J47" t="n">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="K47" t="n">
         <v>17</v>
       </c>
       <c r="L47" t="n">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="M47" t="n">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="N47" t="n">
-        <v>144</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44005</v>
+        <v>43955</v>
       </c>
       <c r="B48" t="n">
-        <v>694</v>
+        <v>626</v>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>541</v>
+        <v>437</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2482,39 +2482,39 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I48" t="n">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="J48" t="n">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="K48" t="n">
         <v>17</v>
       </c>
       <c r="L48" t="n">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="M48" t="n">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="N48" t="n">
-        <v>147</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44004</v>
+        <v>43956</v>
       </c>
       <c r="B49" t="n">
-        <v>698</v>
+        <v>636</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D49" t="n">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2526,39 +2526,39 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I49" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="J49" t="n">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K49" t="n">
         <v>17</v>
       </c>
       <c r="L49" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="M49" t="n">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="N49" t="n">
-        <v>131</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44003</v>
+        <v>43957</v>
       </c>
       <c r="B50" t="n">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" t="n">
-        <v>531</v>
+        <v>464</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2570,39 +2570,39 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I50" t="n">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="J50" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K50" t="n">
         <v>17</v>
       </c>
       <c r="L50" t="n">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="M50" t="n">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="N50" t="n">
-        <v>124</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44002</v>
+        <v>43958</v>
       </c>
       <c r="B51" t="n">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>542</v>
+        <v>450</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -2617,36 +2617,36 @@
         <v>24</v>
       </c>
       <c r="I51" t="n">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="J51" t="n">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="K51" t="n">
         <v>17</v>
       </c>
       <c r="L51" t="n">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="M51" t="n">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="N51" t="n">
-        <v>115</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44001</v>
+        <v>43959</v>
       </c>
       <c r="B52" t="n">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C52" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D52" t="n">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -2658,39 +2658,39 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I52" t="n">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="J52" t="n">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="K52" t="n">
         <v>17</v>
       </c>
       <c r="L52" t="n">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="M52" t="n">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="N52" t="n">
-        <v>106</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44000</v>
+        <v>43960</v>
       </c>
       <c r="B53" t="n">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C53" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D53" t="n">
-        <v>528</v>
+        <v>452</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -2702,39 +2702,39 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I53" t="n">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="J53" t="n">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="K53" t="n">
         <v>17</v>
       </c>
       <c r="L53" t="n">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="M53" t="n">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="N53" t="n">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>43999</v>
+        <v>43961</v>
       </c>
       <c r="B54" t="n">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C54" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D54" t="n">
-        <v>533</v>
+        <v>461</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -2746,39 +2746,39 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I54" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J54" t="n">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="K54" t="n">
         <v>17</v>
       </c>
       <c r="L54" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="M54" t="n">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="N54" t="n">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>43998</v>
+        <v>43962</v>
       </c>
       <c r="B55" t="n">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C55" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D55" t="n">
-        <v>524</v>
+        <v>474</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -2790,39 +2790,39 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I55" t="n">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="J55" t="n">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K55" t="n">
         <v>17</v>
       </c>
       <c r="L55" t="n">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="M55" t="n">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="N55" t="n">
-        <v>107</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>43997</v>
+        <v>43963</v>
       </c>
       <c r="B56" t="n">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="C56" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D56" t="n">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -2834,39 +2834,39 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I56" t="n">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="J56" t="n">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="K56" t="n">
         <v>17</v>
       </c>
       <c r="L56" t="n">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="M56" t="n">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="N56" t="n">
-        <v>115</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>43996</v>
+        <v>43964</v>
       </c>
       <c r="B57" t="n">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="C57" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D57" t="n">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -2878,39 +2878,39 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I57" t="n">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J57" t="n">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="K57" t="n">
         <v>17</v>
       </c>
       <c r="L57" t="n">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="M57" t="n">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="N57" t="n">
-        <v>102</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>43995</v>
+        <v>43965</v>
       </c>
       <c r="B58" t="n">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D58" t="n">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -2922,39 +2922,39 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I58" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="J58" t="n">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="K58" t="n">
         <v>17</v>
       </c>
       <c r="L58" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="M58" t="n">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="N58" t="n">
-        <v>98</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>43994</v>
+        <v>43966</v>
       </c>
       <c r="B59" t="n">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="C59" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D59" t="n">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -2966,39 +2966,39 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I59" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="J59" t="n">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="K59" t="n">
         <v>17</v>
       </c>
       <c r="L59" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="M59" t="n">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="N59" t="n">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>43993</v>
+        <v>43967</v>
       </c>
       <c r="B60" t="n">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="C60" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D60" t="n">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -3010,39 +3010,39 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I60" t="n">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="J60" t="n">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="K60" t="n">
         <v>17</v>
       </c>
       <c r="L60" t="n">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="M60" t="n">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="N60" t="n">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>43992</v>
+        <v>43968</v>
       </c>
       <c r="B61" t="n">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D61" t="n">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -3054,39 +3054,39 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I61" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J61" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K61" t="n">
         <v>17</v>
       </c>
       <c r="L61" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M61" t="n">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="N61" t="n">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43991</v>
+        <v>43969</v>
       </c>
       <c r="B62" t="n">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D62" t="n">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -3098,36 +3098,36 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I62" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J62" t="n">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="K62" t="n">
         <v>17</v>
       </c>
       <c r="L62" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M62" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="N62" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43990</v>
+        <v>43970</v>
       </c>
       <c r="B63" t="n">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="C63" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D63" t="n">
         <v>504</v>
@@ -3142,39 +3142,39 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I63" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J63" t="n">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="K63" t="n">
         <v>17</v>
       </c>
       <c r="L63" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="M63" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N63" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43989</v>
+        <v>43971</v>
       </c>
       <c r="B64" t="n">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C64" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D64" t="n">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -3186,39 +3186,39 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I64" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J64" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K64" t="n">
         <v>17</v>
       </c>
       <c r="L64" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M64" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N64" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>43988</v>
+        <v>43972</v>
       </c>
       <c r="B65" t="n">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C65" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D65" t="n">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -3230,83 +3230,83 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I65" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J65" t="n">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="K65" t="n">
         <v>17</v>
       </c>
       <c r="L65" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M65" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N65" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43987</v>
+        <v>43973</v>
       </c>
       <c r="B66" t="n">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C66" t="n">
+        <v>22</v>
+      </c>
+      <c r="D66" t="n">
+        <v>524</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>29</v>
+      </c>
+      <c r="I66" t="n">
         <v>47</v>
       </c>
-      <c r="D66" t="n">
-        <v>511</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>23</v>
-      </c>
-      <c r="I66" t="n">
-        <v>46</v>
-      </c>
       <c r="J66" t="n">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="K66" t="n">
         <v>17</v>
       </c>
       <c r="L66" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M66" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N66" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43986</v>
+        <v>43974</v>
       </c>
       <c r="B67" t="n">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C67" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D67" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -3318,39 +3318,39 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I67" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J67" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K67" t="n">
         <v>17</v>
       </c>
       <c r="L67" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M67" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N67" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43985</v>
+        <v>43975</v>
       </c>
       <c r="B68" t="n">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C68" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>521</v>
+        <v>484</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -3362,39 +3362,39 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I68" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J68" t="n">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="K68" t="n">
         <v>17</v>
       </c>
       <c r="L68" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M68" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N68" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43984</v>
+        <v>43976</v>
       </c>
       <c r="B69" t="n">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C69" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D69" t="n">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I69" t="n">
         <v>42</v>
       </c>
       <c r="J69" t="n">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="K69" t="n">
         <v>17</v>
@@ -3421,24 +3421,24 @@
         <v>42</v>
       </c>
       <c r="M69" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="N69" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43983</v>
+        <v>43977</v>
       </c>
       <c r="B70" t="n">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C70" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D70" t="n">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -3450,39 +3450,39 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I70" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J70" t="n">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="K70" t="n">
         <v>17</v>
       </c>
       <c r="L70" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M70" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N70" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43982</v>
+        <v>43978</v>
       </c>
       <c r="B71" t="n">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="C71" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D71" t="n">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -3494,39 +3494,39 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I71" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J71" t="n">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="K71" t="n">
         <v>17</v>
       </c>
       <c r="L71" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M71" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="N71" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B72" t="n">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="C72" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D72" t="n">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -3538,25 +3538,25 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I72" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J72" t="n">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="K72" t="n">
         <v>17</v>
       </c>
       <c r="L72" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M72" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N72" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73">
@@ -3605,16 +3605,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="B74" t="n">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="C74" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -3626,39 +3626,39 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I74" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J74" t="n">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="K74" t="n">
         <v>17</v>
       </c>
       <c r="L74" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M74" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N74" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43978</v>
+        <v>43982</v>
       </c>
       <c r="B75" t="n">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="C75" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D75" t="n">
-        <v>532</v>
+        <v>505</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3670,39 +3670,39 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I75" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J75" t="n">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="K75" t="n">
         <v>17</v>
       </c>
       <c r="L75" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M75" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N75" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43977</v>
+        <v>43983</v>
       </c>
       <c r="B76" t="n">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C76" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D76" t="n">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -3714,57 +3714,57 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I76" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J76" t="n">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K76" t="n">
         <v>17</v>
       </c>
       <c r="L76" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M76" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N76" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43976</v>
+        <v>43984</v>
       </c>
       <c r="B77" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C77" t="n">
+        <v>14</v>
+      </c>
+      <c r="D77" t="n">
+        <v>510</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
         <v>22</v>
-      </c>
-      <c r="D77" t="n">
-        <v>501</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
       </c>
       <c r="I77" t="n">
         <v>42</v>
       </c>
       <c r="J77" t="n">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="K77" t="n">
         <v>17</v>
@@ -3773,24 +3773,24 @@
         <v>42</v>
       </c>
       <c r="M77" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="N77" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43975</v>
+        <v>43985</v>
       </c>
       <c r="B78" t="n">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C78" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D78" t="n">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -3802,39 +3802,39 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I78" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J78" t="n">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="K78" t="n">
         <v>17</v>
       </c>
       <c r="L78" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M78" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N78" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>43974</v>
+        <v>43986</v>
       </c>
       <c r="B79" t="n">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="C79" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D79" t="n">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -3846,39 +3846,39 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I79" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J79" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K79" t="n">
         <v>17</v>
       </c>
       <c r="L79" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M79" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N79" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43973</v>
+        <v>43987</v>
       </c>
       <c r="B80" t="n">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="C80" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D80" t="n">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -3890,39 +3890,39 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I80" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J80" t="n">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K80" t="n">
         <v>17</v>
       </c>
       <c r="L80" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M80" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N80" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>43972</v>
+        <v>43988</v>
       </c>
       <c r="B81" t="n">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="C81" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D81" t="n">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -3934,39 +3934,39 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I81" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J81" t="n">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="K81" t="n">
         <v>17</v>
       </c>
       <c r="L81" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M81" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N81" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>43971</v>
+        <v>43989</v>
       </c>
       <c r="B82" t="n">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="C82" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D82" t="n">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -3978,36 +3978,36 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I82" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J82" t="n">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K82" t="n">
         <v>17</v>
       </c>
       <c r="L82" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M82" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N82" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43970</v>
+        <v>43990</v>
       </c>
       <c r="B83" t="n">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="C83" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D83" t="n">
         <v>504</v>
@@ -4022,39 +4022,39 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I83" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="J83" t="n">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="K83" t="n">
         <v>17</v>
       </c>
       <c r="L83" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="M83" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="N83" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>43969</v>
+        <v>43991</v>
       </c>
       <c r="B84" t="n">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="C84" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D84" t="n">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -4066,39 +4066,39 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I84" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J84" t="n">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="K84" t="n">
         <v>17</v>
       </c>
       <c r="L84" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M84" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="N84" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>43968</v>
+        <v>43992</v>
       </c>
       <c r="B85" t="n">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="C85" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D85" t="n">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -4110,39 +4110,39 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I85" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="J85" t="n">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K85" t="n">
         <v>17</v>
       </c>
       <c r="L85" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="M85" t="n">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="N85" t="n">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>43967</v>
+        <v>43993</v>
       </c>
       <c r="B86" t="n">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C86" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D86" t="n">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -4154,39 +4154,39 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I86" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="J86" t="n">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="K86" t="n">
         <v>17</v>
       </c>
       <c r="L86" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="M86" t="n">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="N86" t="n">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>43966</v>
+        <v>43994</v>
       </c>
       <c r="B87" t="n">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C87" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D87" t="n">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -4198,39 +4198,39 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I87" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J87" t="n">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="K87" t="n">
         <v>17</v>
       </c>
       <c r="L87" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="M87" t="n">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="N87" t="n">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>43965</v>
+        <v>43995</v>
       </c>
       <c r="B88" t="n">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C88" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D88" t="n">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -4242,39 +4242,39 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I88" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="J88" t="n">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="K88" t="n">
         <v>17</v>
       </c>
       <c r="L88" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="M88" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="N88" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>43964</v>
+        <v>43996</v>
       </c>
       <c r="B89" t="n">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C89" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D89" t="n">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -4286,39 +4286,39 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I89" t="n">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J89" t="n">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="K89" t="n">
         <v>17</v>
       </c>
       <c r="L89" t="n">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="M89" t="n">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="N89" t="n">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>43963</v>
+        <v>43997</v>
       </c>
       <c r="B90" t="n">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C90" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D90" t="n">
-        <v>479</v>
+        <v>525</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -4330,39 +4330,39 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I90" t="n">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="J90" t="n">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="K90" t="n">
         <v>17</v>
       </c>
       <c r="L90" t="n">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="M90" t="n">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="N90" t="n">
-        <v>57</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>43962</v>
+        <v>43998</v>
       </c>
       <c r="B91" t="n">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C91" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D91" t="n">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -4374,39 +4374,39 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I91" t="n">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J91" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K91" t="n">
         <v>17</v>
       </c>
       <c r="L91" t="n">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="M91" t="n">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="N91" t="n">
-        <v>62</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>43961</v>
+        <v>43999</v>
       </c>
       <c r="B92" t="n">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C92" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D92" t="n">
-        <v>461</v>
+        <v>533</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -4418,39 +4418,39 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I92" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J92" t="n">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="K92" t="n">
         <v>17</v>
       </c>
       <c r="L92" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="M92" t="n">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="N92" t="n">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>43960</v>
+        <v>44000</v>
       </c>
       <c r="B93" t="n">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="C93" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D93" t="n">
-        <v>452</v>
+        <v>528</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -4462,39 +4462,39 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I93" t="n">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J93" t="n">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="K93" t="n">
         <v>17</v>
       </c>
       <c r="L93" t="n">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="M93" t="n">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="N93" t="n">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>43959</v>
+        <v>44001</v>
       </c>
       <c r="B94" t="n">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="C94" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D94" t="n">
-        <v>458</v>
+        <v>534</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -4506,39 +4506,39 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I94" t="n">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="J94" t="n">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="K94" t="n">
         <v>17</v>
       </c>
       <c r="L94" t="n">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="M94" t="n">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="N94" t="n">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>43958</v>
+        <v>44002</v>
       </c>
       <c r="B95" t="n">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C95" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" t="n">
-        <v>450</v>
+        <v>542</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -4553,36 +4553,36 @@
         <v>24</v>
       </c>
       <c r="I95" t="n">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="J95" t="n">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="K95" t="n">
         <v>17</v>
       </c>
       <c r="L95" t="n">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="M95" t="n">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="N95" t="n">
-        <v>63</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>43957</v>
+        <v>44003</v>
       </c>
       <c r="B96" t="n">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="C96" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D96" t="n">
-        <v>464</v>
+        <v>531</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -4594,39 +4594,39 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I96" t="n">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="J96" t="n">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K96" t="n">
         <v>17</v>
       </c>
       <c r="L96" t="n">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="M96" t="n">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="N96" t="n">
-        <v>61</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>43956</v>
+        <v>44004</v>
       </c>
       <c r="B97" t="n">
-        <v>636</v>
+        <v>698</v>
       </c>
       <c r="C97" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>448</v>
+        <v>537</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -4638,39 +4638,39 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I97" t="n">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="J97" t="n">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="K97" t="n">
         <v>17</v>
       </c>
       <c r="L97" t="n">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="M97" t="n">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="N97" t="n">
-        <v>51</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>43955</v>
+        <v>44005</v>
       </c>
       <c r="B98" t="n">
-        <v>626</v>
+        <v>694</v>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>437</v>
+        <v>541</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -4682,39 +4682,39 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I98" t="n">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="J98" t="n">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="K98" t="n">
         <v>17</v>
       </c>
       <c r="L98" t="n">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="M98" t="n">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="N98" t="n">
-        <v>58</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>43954</v>
+        <v>44006</v>
       </c>
       <c r="B99" t="n">
-        <v>616</v>
+        <v>695</v>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D99" t="n">
-        <v>451</v>
+        <v>553</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -4726,39 +4726,39 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I99" t="n">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="J99" t="n">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="K99" t="n">
         <v>17</v>
       </c>
       <c r="L99" t="n">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="M99" t="n">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="N99" t="n">
-        <v>55</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>43953</v>
+        <v>44007</v>
       </c>
       <c r="B100" t="n">
-        <v>616</v>
+        <v>696</v>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D100" t="n">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -4770,39 +4770,39 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I100" t="n">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="J100" t="n">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="K100" t="n">
         <v>17</v>
       </c>
       <c r="L100" t="n">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="M100" t="n">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="N100" t="n">
-        <v>58</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>43952</v>
+        <v>44008</v>
       </c>
       <c r="B101" t="n">
-        <v>616</v>
+        <v>696</v>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D101" t="n">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -4814,39 +4814,39 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I101" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="J101" t="n">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="K101" t="n">
         <v>17</v>
       </c>
       <c r="L101" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="M101" t="n">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="N101" t="n">
-        <v>54</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>43951</v>
+        <v>44009</v>
       </c>
       <c r="B102" t="n">
-        <v>616</v>
+        <v>696</v>
       </c>
       <c r="C102" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D102" t="n">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -4858,39 +4858,39 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I102" t="n">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="J102" t="n">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="K102" t="n">
         <v>17</v>
       </c>
       <c r="L102" t="n">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="M102" t="n">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="N102" t="n">
-        <v>51</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>43950</v>
+        <v>44010</v>
       </c>
       <c r="B103" t="n">
-        <v>609</v>
+        <v>710</v>
       </c>
       <c r="C103" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D103" t="n">
-        <v>424</v>
+        <v>537</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -4902,39 +4902,39 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I103" t="n">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="J103" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K103" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L103" t="n">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="M103" t="n">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="N103" t="n">
-        <v>44</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>43949</v>
+        <v>44011</v>
       </c>
       <c r="B104" t="n">
-        <v>589</v>
+        <v>712</v>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D104" t="n">
-        <v>418</v>
+        <v>551</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -4946,39 +4946,39 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I104" t="n">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J104" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K104" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L104" t="n">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="M104" t="n">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="N104" t="n">
-        <v>47</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>43948</v>
+        <v>44012</v>
       </c>
       <c r="B105" t="n">
-        <v>589</v>
+        <v>703</v>
       </c>
       <c r="C105" t="n">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D105" t="n">
-        <v>408</v>
+        <v>578</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -4990,39 +4990,39 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I105" t="n">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="J105" t="n">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="K105" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L105" t="n">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="M105" t="n">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="N105" t="n">
-        <v>54</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>43947</v>
+        <v>44013</v>
       </c>
       <c r="B106" t="n">
-        <v>589</v>
+        <v>702</v>
       </c>
       <c r="C106" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D106" t="n">
-        <v>408</v>
+        <v>551</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -5034,39 +5034,39 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I106" t="n">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="J106" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K106" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L106" t="n">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="M106" t="n">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="N106" t="n">
-        <v>51</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>43946</v>
+        <v>44014</v>
       </c>
       <c r="B107" t="n">
-        <v>589</v>
+        <v>702</v>
       </c>
       <c r="C107" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D107" t="n">
-        <v>435</v>
+        <v>576</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -5078,39 +5078,39 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I107" t="n">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="J107" t="n">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="K107" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L107" t="n">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="M107" t="n">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="N107" t="n">
-        <v>53</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>43945</v>
+        <v>44015</v>
       </c>
       <c r="B108" t="n">
-        <v>589</v>
+        <v>709</v>
       </c>
       <c r="C108" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D108" t="n">
-        <v>442</v>
+        <v>581</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -5122,39 +5122,39 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I108" t="n">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="J108" t="n">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="K108" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L108" t="n">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="M108" t="n">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="N108" t="n">
-        <v>59</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>43944</v>
+        <v>44016</v>
       </c>
       <c r="B109" t="n">
-        <v>560</v>
+        <v>715</v>
       </c>
       <c r="C109" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D109" t="n">
-        <v>397</v>
+        <v>580</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -5166,39 +5166,39 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I109" t="n">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="J109" t="n">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="K109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L109" t="n">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="M109" t="n">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="N109" t="n">
-        <v>49</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>43943</v>
+        <v>44017</v>
       </c>
       <c r="B110" t="n">
-        <v>560</v>
+        <v>708</v>
       </c>
       <c r="C110" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D110" t="n">
-        <v>371</v>
+        <v>585</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -5210,39 +5210,39 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I110" t="n">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="J110" t="n">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="K110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L110" t="n">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="M110" t="n">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="N110" t="n">
-        <v>51</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>43942</v>
+        <v>44018</v>
       </c>
       <c r="B111" t="n">
-        <v>560</v>
+        <v>718</v>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D111" t="n">
-        <v>385</v>
+        <v>592</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -5254,39 +5254,39 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I111" t="n">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="J111" t="n">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="K111" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L111" t="n">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="M111" t="n">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="N111" t="n">
-        <v>53</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>43941</v>
+        <v>44019</v>
       </c>
       <c r="B112" t="n">
-        <v>560</v>
+        <v>723</v>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D112" t="n">
-        <v>374</v>
+        <v>607</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -5298,39 +5298,39 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I112" t="n">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="J112" t="n">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="K112" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L112" t="n">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="M112" t="n">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="N112" t="n">
-        <v>53</v>
+        <v>230</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>43940</v>
+        <v>44020</v>
       </c>
       <c r="B113" t="n">
-        <v>560</v>
+        <v>723</v>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D113" t="n">
-        <v>374</v>
+        <v>602</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -5342,39 +5342,39 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I113" t="n">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="J113" t="n">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="K113" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L113" t="n">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="M113" t="n">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="N113" t="n">
-        <v>58</v>
+        <v>236</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>43939</v>
+        <v>44021</v>
       </c>
       <c r="B114" t="n">
-        <v>560</v>
+        <v>733</v>
       </c>
       <c r="C114" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D114" t="n">
-        <v>374</v>
+        <v>616</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -5386,39 +5386,39 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I114" t="n">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="J114" t="n">
-        <v>318</v>
+        <v>382</v>
       </c>
       <c r="K114" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L114" t="n">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="M114" t="n">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="N114" t="n">
-        <v>56</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>43938</v>
+        <v>44022</v>
       </c>
       <c r="B115" t="n">
-        <v>560</v>
+        <v>733</v>
       </c>
       <c r="C115" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D115" t="n">
-        <v>360</v>
+        <v>614</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -5430,39 +5430,39 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I115" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="J115" t="n">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="K115" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L115" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="M115" t="n">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="N115" t="n">
-        <v>59</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>43937</v>
+        <v>44023</v>
       </c>
       <c r="B116" t="n">
-        <v>560</v>
+        <v>738</v>
       </c>
       <c r="C116" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D116" t="n">
-        <v>383</v>
+        <v>630</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -5474,39 +5474,39 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I116" t="n">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="J116" t="n">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="K116" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L116" t="n">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="M116" t="n">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="N116" t="n">
-        <v>57</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>43936</v>
+        <v>44024</v>
       </c>
       <c r="B117" t="n">
-        <v>556</v>
+        <v>738</v>
       </c>
       <c r="C117" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D117" t="n">
-        <v>353</v>
+        <v>631</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -5518,39 +5518,39 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I117" t="n">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="J117" t="n">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="K117" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L117" t="n">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="M117" t="n">
-        <v>50</v>
+        <v>259</v>
       </c>
       <c r="N117" t="n">
-        <v>50</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>43935</v>
+        <v>44025</v>
       </c>
       <c r="B118" t="n">
-        <v>525</v>
+        <v>728</v>
       </c>
       <c r="C118" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D118" t="n">
-        <v>327</v>
+        <v>605</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -5562,39 +5562,39 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I118" t="n">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="J118" t="n">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="K118" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L118" t="n">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="M118" t="n">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="N118" t="n">
-        <v>57</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>43934</v>
+        <v>44026</v>
       </c>
       <c r="B119" t="n">
-        <v>525</v>
+        <v>738</v>
       </c>
       <c r="C119" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D119" t="n">
-        <v>350</v>
+        <v>613</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -5606,39 +5606,39 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I119" t="n">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="J119" t="n">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="K119" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L119" t="n">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="M119" t="n">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="N119" t="n">
-        <v>59</v>
+        <v>270</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>43933</v>
+        <v>44027</v>
       </c>
       <c r="B120" t="n">
-        <v>525</v>
+        <v>756</v>
       </c>
       <c r="C120" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D120" t="n">
-        <v>351</v>
+        <v>640</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -5650,39 +5650,39 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I120" t="n">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="J120" t="n">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="K120" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L120" t="n">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="M120" t="n">
-        <v>56</v>
+        <v>279</v>
       </c>
       <c r="N120" t="n">
-        <v>56</v>
+        <v>279</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>43932</v>
+        <v>44028</v>
       </c>
       <c r="B121" t="n">
-        <v>525</v>
+        <v>746</v>
       </c>
       <c r="C121" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D121" t="n">
-        <v>380</v>
+        <v>655</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -5694,39 +5694,39 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I121" t="n">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="J121" t="n">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="K121" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L121" t="n">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="M121" t="n">
-        <v>62</v>
+        <v>288</v>
       </c>
       <c r="N121" t="n">
-        <v>62</v>
+        <v>288</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>43931</v>
+        <v>44029</v>
       </c>
       <c r="B122" t="n">
-        <v>525</v>
+        <v>748</v>
       </c>
       <c r="C122" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D122" t="n">
-        <v>360</v>
+        <v>650</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -5738,39 +5738,39 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I122" t="n">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="J122" t="n">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="K122" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L122" t="n">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="M122" t="n">
-        <v>61</v>
+        <v>305</v>
       </c>
       <c r="N122" t="n">
-        <v>61</v>
+        <v>305</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>43930</v>
+        <v>44030</v>
       </c>
       <c r="B123" t="n">
-        <v>525</v>
+        <v>748</v>
       </c>
       <c r="C123" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D123" t="n">
-        <v>356</v>
+        <v>665</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -5782,39 +5782,39 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I123" t="n">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="J123" t="n">
-        <v>294</v>
+        <v>359</v>
       </c>
       <c r="K123" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L123" t="n">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="M123" t="n">
-        <v>62</v>
+        <v>306</v>
       </c>
       <c r="N123" t="n">
-        <v>62</v>
+        <v>306</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>43929</v>
+        <v>44031</v>
       </c>
       <c r="B124" t="n">
-        <v>525</v>
+        <v>756</v>
       </c>
       <c r="C124" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>378</v>
+        <v>678</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -5826,39 +5826,39 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I124" t="n">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="J124" t="n">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="K124" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L124" t="n">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="M124" t="n">
-        <v>56</v>
+        <v>311</v>
       </c>
       <c r="N124" t="n">
-        <v>56</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>43928</v>
+        <v>44032</v>
       </c>
       <c r="B125" t="n">
-        <v>525</v>
+        <v>756</v>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>361</v>
+        <v>674</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -5870,39 +5870,39 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I125" t="n">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="J125" t="n">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="K125" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L125" t="n">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="M125" t="n">
-        <v>61</v>
+        <v>322</v>
       </c>
       <c r="N125" t="n">
-        <v>61</v>
+        <v>322</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>43927</v>
+        <v>44033</v>
       </c>
       <c r="B126" t="n">
-        <v>515</v>
+        <v>784</v>
       </c>
       <c r="C126" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D126" t="n">
-        <v>363</v>
+        <v>694</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -5914,39 +5914,39 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I126" t="n">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="J126" t="n">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="K126" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L126" t="n">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="M126" t="n">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="N126" t="n">
-        <v>55</v>
+        <v>336</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>43926</v>
+        <v>44034</v>
       </c>
       <c r="B127" t="n">
-        <v>515</v>
+        <v>775</v>
       </c>
       <c r="C127" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D127" t="n">
-        <v>365</v>
+        <v>678</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -5958,773 +5958,817 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I127" t="n">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="J127" t="n">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="K127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L127" t="n">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="M127" t="n">
-        <v>57</v>
+        <v>326</v>
       </c>
       <c r="N127" t="n">
-        <v>57</v>
+        <v>326</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>43925</v>
+        <v>44035</v>
       </c>
       <c r="B128" t="n">
-        <v>515</v>
+        <v>788</v>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D128" t="n">
-        <v>377</v>
+        <v>677</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H128" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I128" t="n">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="J128" t="n">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="K128" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L128" t="n">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="M128" t="n">
-        <v>60</v>
+        <v>327</v>
       </c>
       <c r="N128" t="n">
-        <v>60</v>
+        <v>337</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>43924</v>
+        <v>44036</v>
       </c>
       <c r="B129" t="n">
-        <v>515</v>
+        <v>786</v>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D129" t="n">
-        <v>379</v>
+        <v>682</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H129" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I129" t="n">
-        <v>29</v>
+        <v>295</v>
       </c>
       <c r="J129" t="n">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="K129" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L129" t="n">
-        <v>29</v>
+        <v>295</v>
       </c>
       <c r="M129" t="n">
-        <v>61</v>
+        <v>330</v>
       </c>
       <c r="N129" t="n">
-        <v>61</v>
+        <v>346</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>43923</v>
+        <v>44037</v>
       </c>
       <c r="B130" t="n">
-        <v>515</v>
+        <v>792</v>
       </c>
       <c r="C130" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D130" t="n">
-        <v>378</v>
+        <v>702</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H130" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I130" t="n">
-        <v>26</v>
+        <v>312</v>
       </c>
       <c r="J130" t="n">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="K130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L130" t="n">
-        <v>26</v>
+        <v>312</v>
       </c>
       <c r="M130" t="n">
-        <v>56</v>
+        <v>347</v>
       </c>
       <c r="N130" t="n">
-        <v>56</v>
+        <v>366</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>43922</v>
+        <v>44038</v>
       </c>
       <c r="B131" t="n">
-        <v>525</v>
+        <v>786</v>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D131" t="n">
-        <v>380</v>
+        <v>682</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H131" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I131" t="n">
-        <v>25</v>
+        <v>315</v>
       </c>
       <c r="J131" t="n">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K131" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L131" t="n">
-        <v>25</v>
+        <v>315</v>
       </c>
       <c r="M131" t="n">
-        <v>58</v>
+        <v>354</v>
       </c>
       <c r="N131" t="n">
-        <v>58</v>
+        <v>366</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>43921</v>
+        <v>44039</v>
       </c>
       <c r="B132" t="n">
-        <v>525</v>
+        <v>788</v>
       </c>
       <c r="C132" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D132" t="n">
-        <v>387</v>
+        <v>683</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="H132" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I132" t="n">
-        <v>18</v>
+        <v>305</v>
       </c>
       <c r="J132" t="n">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="K132" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L132" t="n">
-        <v>18</v>
+        <v>305</v>
       </c>
       <c r="M132" t="n">
-        <v>49</v>
+        <v>353</v>
       </c>
       <c r="N132" t="n">
-        <v>49</v>
+        <v>366</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>43920</v>
+        <v>44040</v>
       </c>
       <c r="B133" t="n">
-        <v>479</v>
+        <v>788</v>
       </c>
       <c r="C133" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D133" t="n">
-        <v>345</v>
+        <v>690</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H133" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I133" t="n">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="J133" t="n">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="K133" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L133" t="n">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="M133" t="n">
-        <v>49</v>
+        <v>358</v>
       </c>
       <c r="N133" t="n">
-        <v>49</v>
+        <v>375</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>43919</v>
+        <v>44041</v>
       </c>
       <c r="B134" t="n">
-        <v>475</v>
+        <v>790</v>
       </c>
       <c r="C134" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D134" t="n">
-        <v>340</v>
+        <v>692</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H134" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I134" t="n">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="J134" t="n">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="K134" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L134" t="n">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="M134" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="N134" t="n">
-        <v>50</v>
+        <v>366</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>43918</v>
+        <v>44042</v>
       </c>
       <c r="B135" t="n">
-        <v>474</v>
+        <v>799</v>
       </c>
       <c r="C135" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D135" t="n">
-        <v>347</v>
+        <v>683</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H135" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I135" t="n">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="J135" t="n">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="K135" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L135" t="n">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="M135" t="n">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="N135" t="n">
-        <v>41</v>
+        <v>356</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>43917</v>
+        <v>44043</v>
       </c>
       <c r="B136" t="n">
-        <v>427</v>
+        <v>813</v>
       </c>
       <c r="C136" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D136" t="n">
+        <v>713</v>
+      </c>
+      <c r="E136" t="n">
+        <v>15</v>
+      </c>
+      <c r="F136" t="n">
+        <v>21</v>
+      </c>
+      <c r="G136" t="n">
+        <v>41</v>
+      </c>
+      <c r="H136" t="n">
+        <v>44</v>
+      </c>
+      <c r="I136" t="n">
         <v>307</v>
       </c>
-      <c r="E136" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0</v>
-      </c>
-      <c r="H136" t="n">
-        <v>28</v>
-      </c>
-      <c r="I136" t="n">
-        <v>10</v>
-      </c>
       <c r="J136" t="n">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="K136" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L136" t="n">
-        <v>10</v>
+        <v>307</v>
       </c>
       <c r="M136" t="n">
-        <v>38</v>
+        <v>351</v>
       </c>
       <c r="N136" t="n">
-        <v>38</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>43916</v>
+        <v>44044</v>
       </c>
       <c r="B137" t="n">
-        <v>466</v>
+        <v>812</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D137" t="n">
-        <v>329</v>
+        <v>697</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H137" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I137" t="n">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="J137" t="n">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="K137" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L137" t="n">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="M137" t="n">
-        <v>43</v>
+        <v>356</v>
       </c>
       <c r="N137" t="n">
-        <v>43</v>
+        <v>373</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>43915</v>
+        <v>44045</v>
       </c>
       <c r="B138" t="n">
-        <v>477</v>
+        <v>812</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D138" t="n">
-        <v>339</v>
+        <v>711</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H138" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I138" t="n">
-        <v>9</v>
+        <v>318</v>
       </c>
       <c r="J138" t="n">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="K138" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L138" t="n">
-        <v>9</v>
+        <v>318</v>
       </c>
       <c r="M138" t="n">
-        <v>35</v>
+        <v>355</v>
       </c>
       <c r="N138" t="n">
-        <v>35</v>
+        <v>370</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>43914</v>
+        <v>44046</v>
       </c>
       <c r="B139" t="n">
-        <v>470</v>
+        <v>812</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D139" t="n">
-        <v>327</v>
+        <v>709</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H139" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I139" t="n">
-        <v>9</v>
+        <v>314</v>
       </c>
       <c r="J139" t="n">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="K139" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L139" t="n">
-        <v>9</v>
+        <v>314</v>
       </c>
       <c r="M139" t="n">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="N139" t="n">
-        <v>35</v>
+        <v>371</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>43913</v>
+        <v>44047</v>
       </c>
       <c r="B140" t="n">
-        <v>470</v>
+        <v>817</v>
       </c>
       <c r="C140" t="n">
+        <v>15</v>
+      </c>
+      <c r="D140" t="n">
+        <v>725</v>
+      </c>
+      <c r="E140" t="n">
         <v>10</v>
       </c>
-      <c r="D140" t="n">
-        <v>336</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0</v>
-      </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H140" t="n">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I140" t="n">
-        <v>6</v>
+        <v>309</v>
       </c>
       <c r="J140" t="n">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="K140" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L140" t="n">
-        <v>6</v>
+        <v>309</v>
       </c>
       <c r="M140" t="n">
-        <v>31</v>
+        <v>367</v>
       </c>
       <c r="N140" t="n">
-        <v>31</v>
+        <v>377</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>43912</v>
+        <v>44048</v>
       </c>
       <c r="B141" t="n">
-        <v>397</v>
+        <v>821</v>
       </c>
       <c r="C141" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D141" t="n">
-        <v>270</v>
+        <v>709</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H141" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I141" t="n">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="J141" t="n">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="K141" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L141" t="n">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="M141" t="n">
-        <v>24</v>
+        <v>365</v>
       </c>
       <c r="N141" t="n">
-        <v>24</v>
+        <v>376</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>43911</v>
+        <v>44049</v>
       </c>
       <c r="B142" t="n">
-        <v>394</v>
+        <v>819</v>
       </c>
       <c r="C142" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D142" t="n">
-        <v>294</v>
+        <v>714</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H142" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I142" t="n">
-        <v>4</v>
+        <v>331</v>
       </c>
       <c r="J142" t="n">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="K142" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L142" t="n">
-        <v>4</v>
+        <v>331</v>
       </c>
       <c r="M142" t="n">
-        <v>19</v>
+        <v>373</v>
       </c>
       <c r="N142" t="n">
-        <v>19</v>
+        <v>387</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>43910</v>
+        <v>44050</v>
       </c>
       <c r="B143" t="n">
-        <v>332</v>
+        <v>826</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D143" t="n">
-        <v>261</v>
+        <v>718</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H143" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="J143" t="n">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="K143" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L143" t="n">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="M143" t="n">
-        <v>9</v>
+        <v>370</v>
       </c>
       <c r="N143" t="n">
-        <v>9</v>
+        <v>377</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>43909</v>
+        <v>44051</v>
       </c>
       <c r="B144" t="n">
-        <v>220</v>
+        <v>823</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>165</v>
+        <v>708</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H144" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="J144" t="n">
-        <v>158</v>
+        <v>346</v>
       </c>
       <c r="K144" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L144" t="n">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="M144" t="n">
-        <v>7</v>
+        <v>362</v>
       </c>
       <c r="N144" t="n">
-        <v>7</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>44052</v>
+      </c>
+      <c r="B145" t="n">
+        <v>823</v>
+      </c>
+      <c r="C145" t="n">
+        <v>15</v>
+      </c>
+      <c r="D145" t="n">
+        <v>726</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>21</v>
+      </c>
+      <c r="G145" t="n">
+        <v>15</v>
+      </c>
+      <c r="H145" t="n">
+        <v>30</v>
+      </c>
+      <c r="I145" t="n">
+        <v>336</v>
+      </c>
+      <c r="J145" t="n">
+        <v>360</v>
+      </c>
+      <c r="K145" t="n">
+        <v>17</v>
+      </c>
+      <c r="L145" t="n">
+        <v>336</v>
+      </c>
+      <c r="M145" t="n">
+        <v>366</v>
+      </c>
+      <c r="N145" t="n">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
